--- a/reports/security_reports.xlsx
+++ b/reports/security_reports.xlsx
@@ -4547,7 +4547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6599,46 +6599,30 @@
           <t>framework</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0BSD</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>SHA-256:6c3130c8927109a08225993e4e503de4ac4f2678678ae211b33b519c622a7242</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>A simple framework for building complex web applications.</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>actions</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>checkout</t>
+          <t>jinja2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>v4</t>
+          <t>3.1.6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>pkg:github/actions/checkout@v4</t>
+          <t>pkg:pypi/jinja2@3.1.6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -6649,17 +6633,17 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>snyk%2Factions%2Fiac</t>
+          <t>markupsafe</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14818c4695ecc4045f33c9cee9e795a788711ca4</t>
+          <t>3.0.2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>pkg:github/snyk%2Factions%2Fiac@14818c4695ecc4045f33c9cee9e795a788711ca4</t>
+          <t>pkg:pypi/markupsafe@3.0.2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6675,17 +6659,17 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>github%2Fcodeql-action%2Fupload-sarif</t>
+          <t>werkzeug</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>3.1.3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>pkg:github/github%2Fcodeql-action%2Fupload-sarif@v3</t>
+          <t>pkg:pypi/werkzeug@3.1.3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6698,24 +6682,20 @@
       <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>oxsecurity</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ox-security-scan</t>
+          <t>click</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>8.1.8</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>pkg:github/oxsecurity/ox-security-scan@main</t>
+          <t>pkg:pypi/click@8.1.8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6726,6 +6706,144 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>itsdangerous</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>pkg:pypi/itsdangerous@2.2.0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>actions</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>checkout</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>v4</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>pkg:github/actions/checkout@v4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>application</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>snyk%2Factions%2Fiac</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>14818c4695ecc4045f33c9cee9e795a788711ca4</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>pkg:github/snyk%2Factions%2Fiac@14818c4695ecc4045f33c9cee9e795a788711ca4</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>github%2Fcodeql-action%2Fupload-sarif</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>v3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>pkg:github/github%2Fcodeql-action%2Fupload-sarif@v3</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>oxsecurity</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ox-security-scan</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>pkg:github/oxsecurity/ox-security-scan@main</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6738,7 +6856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7559,6 +7677,114 @@
       <c r="B68" t="inlineStr">
         <is>
           <t>tomcat-embed-websocket</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>pkg:pypi/app@latest</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>flask</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pkg:pypi/app@latest</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>jinja2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>pkg:pypi/app@latest</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>werkzeug</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>jinja2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>markupsafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>werkzeug</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>markupsafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>flask</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>flask</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>itsdangerous</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>flask</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>jinja2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>flask</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>werkzeug</t>
         </is>
       </c>
     </row>

--- a/reports/security_reports.xlsx
+++ b/reports/security_reports.xlsx
@@ -7832,7 +7832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7848,30 +7848,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Tool Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>INFO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CRITICAL</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>UNKNOWN</t>
         </is>
@@ -7883,24 +7888,29 @@
           <t>Semgrep</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SAST</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7908,22 +7918,27 @@
           <t>OSV_Vulnerabilities</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>19</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>27</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7933,24 +7948,29 @@
           <t>Tfsec_Findings</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IaC Scan</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7958,8 +7978,10 @@
           <t>Gitleaks</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Secret Scan</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -7974,6 +7996,9 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/reports/security_reports.xlsx
+++ b/reports/security_reports.xlsx
@@ -722,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GHSA-fccv-jmmp-qg76</t>
+          <t>GHSA-83qj-6fr2-vhqg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1499,32 +1499,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Apache Tomcat Improper Input Validation vulnerability</t>
+          <t>Apache Tomcat: Potential RCE and/or information disclosure and/or information corruption with partial PUT</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 8.5.94, 8.5.95, 11.0.0-M1, 11.0.0-M10, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 8.5.94, 8.5.95</t>
+          <t>11.0.0, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M17, 11.0.0-M18, 11.0.0-M19, 11.0.0-M20, 11.0.0-M21, 11.0.0-M22, 11.0.0-M24, 11.0.0-M25, 11.0.0-M26, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 11.0.1, 11.0.2, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.19, 10.1.2, 10.1.20, 10.1.23, 10.1.24, 10.1.25, 10.1.26, 10.1.28, 10.1.29, 10.1.30, 10.1.31, 10.1.33, 10.1.34, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 9.0.86, 9.0.87, 9.0.88, 9.0.89, 9.0.90, 9.0.91, 9.0.93, 9.0.94, 9.0.95, 9.0.96, 9.0.97, 9.0.98, 11.0.0, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M17, 11.0.0-M18, 11.0.0-M19, 11.0.0-M20, 11.0.0-M21, 11.0.0-M22, 11.0.0-M24, 11.0.0-M25, 11.0.0-M26, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 11.0.1, 11.0.2, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.19, 10.1.2, 10.1.20, 10.1.23, 10.1.24, 10.1.25, 10.1.26, 10.1.28, 10.1.29, 10.1.30, 10.1.31, 10.1.33, 10.1.34, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 9.0.86, 9.0.87, 9.0.88, 9.0.89, 9.0.90, 9.0.91, 9.0.93, 9.0.94, 9.0.95, 9.0.96, 9.0.97, 9.0.98</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11.0.0-M11, 10.1.16, 9.0.83, 8.5.96, 11.0.0-M11, 10.1.16, 9.0.83, 8.5.96</t>
+          <t>11.0.3, 10.1.35, 9.0.99, 11.0.3, 10.1.35, 9.0.99</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>CWE-20, CWE-444</t>
+          <t>CWE-44, CWE-502</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>BIT-tomcat-2023-46589, CVE-2023-46589</t>
+          <t>BIT-tomcat-2025-24813, CVE-2025-24813</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-46589, https://github.com/apache/tomcat/commit/6f181e1062a472bc5f0234980f66cbde42c1041b, https://github.com/apache/tomcat/commit/7a2d8818fcea0b51747a67af9510ce7977245ebd, https://github.com/apache/tomcat/commit/aa92971e879a519384c517febc39fd04c48d4642, https://github.com/apache/tomcat/commit/b5776d769bffeade865061bc8ecbeb2b56167b08, https://github.com/apache/tomcat, https://lists.apache.org/thread/0rqq6ktozqc42ro8hhxdmmdjm1k1tpxr, https://lists.debian.org/debian-lts-announce/2024/01/msg00001.html, https://security.netapp.com/advisory/ntap-20231214-0009, https://tomcat.apache.org/security-10.html, https://tomcat.apache.org/security-11.html, https://tomcat.apache.org/security-8.html, https://tomcat.apache.org/security-9.html, https://www.openwall.com/lists/oss-security/2023/11/28/2, http://www.openwall.com/lists/oss-security/2023/11/28/2</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2025-24813, https://github.com/apache/tomcat/commit/0a668e0c27f2b7ca0cc7c6eea32253b9b5ecb29c, https://github.com/apache/tomcat/commit/eb61aade8f8daccaecabf07d428b877975622f72, https://github.com/apache/tomcat/commit/f6c01d6577cf9a1e06792be47e623d36acc3b5dc, https://github.com/absholi7ly/POC-CVE-2025-24813/blob/main/README.md, https://github.com/apache/tomcat, https://lists.apache.org/thread/j5fkjv2k477os90nczf2v9l61fb0kkgq, http://www.openwall.com/lists/oss-security/2025/03/10/5</t>
         </is>
       </c>
     </row>
@@ -1546,42 +1546,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GHSA-g8pj-r55q-5c2v</t>
+          <t>GHSA-fccv-jmmp-qg76</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Apache Tomcat Incomplete Cleanup vulnerability</t>
+          <t>Apache Tomcat Improper Input Validation vulnerability</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93</t>
+          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 8.5.94, 8.5.95, 11.0.0-M1, 11.0.0-M10, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 8.5.94, 8.5.95</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11.0.0-M12, 10.1.14, 9.0.81, 8.5.94, 11.0.0-M12, 10.1.14, 9.0.81, 8.5.94</t>
+          <t>11.0.0-M11, 10.1.16, 9.0.83, 8.5.96, 11.0.0-M11, 10.1.16, 9.0.83, 8.5.96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>CWE-459</t>
+          <t>CWE-20, CWE-444</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>BIT-tomcat-2023-42795, CVE-2023-42795</t>
+          <t>BIT-tomcat-2023-46589, CVE-2023-46589</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-42795, https://github.com/apache/tomcat/commit/30f8063d7a9b4c43ae4722f5e382a76af1d7a6bf, https://github.com/apache/tomcat/commit/44d05d75d696ca10ce251e4e370511e38f20ae75, https://github.com/apache/tomcat/commit/9375d67106f8df9eb9d7b360b2bef052fe67d3d4, https://github.com/apache/tomcat/commit/d6db22e411307c97ddf78315c15d5889356eca38, https://github.com/apache/tomcat, https://lists.apache.org/thread/065jfyo583490r9j2v73nhpyxdob56lw, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://security.netapp.com/advisory/ntap-20231103-0007, https://www.debian.org/security/2023/dsa-5521, https://www.debian.org/security/2023/dsa-5522, http://www.openwall.com/lists/oss-security/2023/10/10/9</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-46589, https://github.com/apache/tomcat/commit/6f181e1062a472bc5f0234980f66cbde42c1041b, https://github.com/apache/tomcat/commit/7a2d8818fcea0b51747a67af9510ce7977245ebd, https://github.com/apache/tomcat/commit/aa92971e879a519384c517febc39fd04c48d4642, https://github.com/apache/tomcat/commit/b5776d769bffeade865061bc8ecbeb2b56167b08, https://github.com/apache/tomcat, https://lists.apache.org/thread/0rqq6ktozqc42ro8hhxdmmdjm1k1tpxr, https://lists.debian.org/debian-lts-announce/2024/01/msg00001.html, https://security.netapp.com/advisory/ntap-20231214-0009, https://tomcat.apache.org/security-10.html, https://tomcat.apache.org/security-11.html, https://tomcat.apache.org/security-8.html, https://tomcat.apache.org/security-9.html, https://www.openwall.com/lists/oss-security/2023/11/28/2, http://www.openwall.com/lists/oss-security/2023/11/28/2</t>
         </is>
       </c>
     </row>
@@ -1603,42 +1603,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GHSA-hfrx-6qgj-fp6c</t>
+          <t>GHSA-g8pj-r55q-5c2v</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Apache Commons FileUpload denial of service vulnerability</t>
+          <t>Apache Tomcat Incomplete Cleanup vulnerability</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.0, 1.0-beta-1, 1.0-rc1, 1.1, 1.1.1, 1.2, 1.2.1, 1.2.2, 1.3, 1.3.1, 1.3.1-jenkins-1, 1.3.1-jenkins-2, 1.3.2, 1.3.3, 1.4, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.2, 10.1.4, 11.0.0-M3, 11.0.0-M4, 8.5.85, 8.5.86, 8.5.87, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.2, 10.1.4, 11.0.0-M3, 11.0.0-M4, 8.5.85, 8.5.86, 8.5.87, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.8</t>
+          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.5, 10.1.5, 11.0.0-M5, 8.5.88, 9.0.71, 10.1.5, 11.0.0-M5, 8.5.88, 9.0.71</t>
+          <t>11.0.0-M12, 10.1.14, 9.0.81, 8.5.94, 11.0.0-M12, 10.1.14, 9.0.81, 8.5.94</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CWE-770</t>
+          <t>CWE-459</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CVE-2023-24998</t>
+          <t>BIT-tomcat-2023-42795, CVE-2023-42795</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-24998, https://github.com/apache/commons-fileupload/commit/e20c04990f7420ca917e96a84cec58b13a1b3d17, https://github.com/apache/tomcat/commit/8a2285f13affa961cc65595aad999db5efae45ce, https://github.com/apache/tomcat/commit/9ca96c8c1eba86c0aaa2e6be581ba2a7d4d4ae6e, https://github.com/apache/tomcat/commit/cf77cc545de0488fb89e24294151504a7432df74, https://github.com/apache/tomcat/commit/d53d8e7f77042cc32a3b98f589496a1ef5088e38, https://www.debian.org/security/2023/dsa-5522, https://tomcat.apache.org/security-9.html, https://tomcat.apache.org/security-8.html, https://tomcat.apache.org/security-11.html, https://tomcat.apache.org/security-10.html, https://security.netapp.com/advisory/ntap-20230302-0013, https://security.gentoo.org/glsa/202305-37, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://lists.apache.org/thread/4xl4l09mhwg4vgsk7dxqogcjrobrrdoy, https://github.com/search?q=repo%3Aapache%2Ftomcat+util.http+path%3A%2F%5Eres%5C%2Fbnd%5C%2F%2F&amp;type=code, https://github.com/apache/commons-fileupload, https://commons.apache.org/proper/commons-fileupload/security-reports.html, http://www.openwall.com/lists/oss-security/2023/05/22/1</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-42795, https://github.com/apache/tomcat/commit/30f8063d7a9b4c43ae4722f5e382a76af1d7a6bf, https://github.com/apache/tomcat/commit/44d05d75d696ca10ce251e4e370511e38f20ae75, https://github.com/apache/tomcat/commit/9375d67106f8df9eb9d7b360b2bef052fe67d3d4, https://github.com/apache/tomcat/commit/d6db22e411307c97ddf78315c15d5889356eca38, https://github.com/apache/tomcat, https://lists.apache.org/thread/065jfyo583490r9j2v73nhpyxdob56lw, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://security.netapp.com/advisory/ntap-20231103-0007, https://www.debian.org/security/2023/dsa-5521, https://www.debian.org/security/2023/dsa-5522, http://www.openwall.com/lists/oss-security/2023/10/10/9</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GHSA-p22x-g9px-3945</t>
+          <t>GHSA-hfrx-6qgj-fp6c</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Apache Tomcat may reject request containing invalid Content-Length header</t>
+          <t>Apache Commons FileUpload denial of service vulnerability</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.7, 9.0.8, 10.0.0, 10.0.0-M1, 10.0.0-M10, 10.0.0-M3, 10.0.0-M4, 10.0.0-M5, 10.0.0-M6, 10.0.0-M7, 10.0.0-M8, 10.0.0-M9, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.16, 10.0.17, 10.0.18, 10.0.2, 10.0.20, 10.0.21, 10.0.22, 10.0.23, 10.0.26, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.7, 9.0.8, 10.0.0, 10.0.0-M1, 10.0.0-M10, 10.0.0-M3, 10.0.0-M4, 10.0.0-M5, 10.0.0-M6, 10.0.0-M7, 10.0.0-M8, 10.0.0-M9, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.16, 10.0.17, 10.0.18, 10.0.2, 10.0.20, 10.0.21, 10.0.22, 10.0.23, 10.0.26, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8</t>
+          <t>1.0, 1.0-beta-1, 1.0-rc1, 1.1, 1.1.1, 1.2, 1.2.1, 1.2.2, 1.3, 1.3.1, 1.3.1-jenkins-1, 1.3.1-jenkins-2, 1.3.2, 1.3.3, 1.4, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.2, 10.1.4, 11.0.0-M3, 11.0.0-M4, 8.5.85, 8.5.86, 8.5.87, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.2, 10.1.4, 11.0.0-M3, 11.0.0-M4, 8.5.85, 8.5.86, 8.5.87, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.8</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.5.83, 9.0.68, 10.0.27, 10.1.1, 9.0.68, 10.0.27, 10.1.1</t>
+          <t>1.5, 10.1.5, 11.0.0-M5, 8.5.88, 9.0.71, 10.1.5, 11.0.0-M5, 8.5.88, 9.0.71</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CWE-20, CWE-444</t>
+          <t>CWE-770</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>BIT-tomcat-2022-42252, CVE-2022-42252</t>
+          <t>CVE-2023-24998</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-42252, https://github.com/apache/tomcat/commit/0d089a15047faf9cb3c82f80f4d28febd4798920, https://github.com/apache/tomcat/commit/4c7f4fd09d2cc1692112ef70b8ee23a7a037ae77, https://github.com/apache/tomcat/commit/a1c07906d8dcaf7957e5cc97f5cdbac7d18a205a, https://github.com/apache/tomcat/commit/c9fe754e5d17e262dfbd3eab2a03ca96ff372dc3, https://github.com/apache/tomcat, https://lists.apache.org/thread/zzcxzvqfdqn515zfs3dxb7n8gty589sq, https://security.gentoo.org/glsa/202305-37, https://tomcat.apache.org/security-10.html, https://tomcat.apache.org/security-8.html, https://tomcat.apache.org/security-9.html</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-24998, https://github.com/apache/commons-fileupload/commit/e20c04990f7420ca917e96a84cec58b13a1b3d17, https://github.com/apache/tomcat/commit/8a2285f13affa961cc65595aad999db5efae45ce, https://github.com/apache/tomcat/commit/9ca96c8c1eba86c0aaa2e6be581ba2a7d4d4ae6e, https://github.com/apache/tomcat/commit/cf77cc545de0488fb89e24294151504a7432df74, https://github.com/apache/tomcat/commit/d53d8e7f77042cc32a3b98f589496a1ef5088e38, https://www.debian.org/security/2023/dsa-5522, https://tomcat.apache.org/security-9.html, https://tomcat.apache.org/security-8.html, https://tomcat.apache.org/security-11.html, https://tomcat.apache.org/security-10.html, https://security.netapp.com/advisory/ntap-20230302-0013, https://security.gentoo.org/glsa/202305-37, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://lists.apache.org/thread/4xl4l09mhwg4vgsk7dxqogcjrobrrdoy, https://github.com/search?q=repo%3Aapache%2Ftomcat+util.http+path%3A%2F%5Eres%5C%2Fbnd%5C%2F%2F&amp;type=code, https://github.com/apache/commons-fileupload, https://commons.apache.org/proper/commons-fileupload/security-reports.html, http://www.openwall.com/lists/oss-security/2023/05/22/1</t>
         </is>
       </c>
     </row>
@@ -1717,42 +1717,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GHSA-q3mw-pvr8-9ggc</t>
+          <t>GHSA-p22x-g9px-3945</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Apache Tomcat Open Redirect vulnerability</t>
+          <t>Apache Tomcat may reject request containing invalid Content-Length header</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 11.0.0-M1, 11.0.0-M10, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9</t>
+          <t>8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.7, 9.0.8, 10.0.0, 10.0.0-M1, 10.0.0-M10, 10.0.0-M3, 10.0.0-M4, 10.0.0-M5, 10.0.0-M6, 10.0.0-M7, 10.0.0-M8, 10.0.0-M9, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.16, 10.0.17, 10.0.18, 10.0.2, 10.0.20, 10.0.21, 10.0.22, 10.0.23, 10.0.26, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.7, 9.0.8, 10.0.0, 10.0.0-M1, 10.0.0-M10, 10.0.0-M3, 10.0.0-M4, 10.0.0-M5, 10.0.0-M6, 10.0.0-M7, 10.0.0-M8, 10.0.0-M9, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.16, 10.0.17, 10.0.18, 10.0.2, 10.0.20, 10.0.21, 10.0.22, 10.0.23, 10.0.26, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11.0.0-M11, 10.1.13, 9.0.80, 8.5.93, 8.5.93, 9.0.80, 10.1.13, 11.0.0-M11</t>
+          <t>8.5.83, 9.0.68, 10.0.27, 10.1.1, 9.0.68, 10.0.27, 10.1.1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CWE-601</t>
+          <t>CWE-20, CWE-444</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>BIT-tomcat-2023-41080, CVE-2023-41080</t>
+          <t>BIT-tomcat-2022-42252, CVE-2022-42252</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-41080, https://github.com/apache/tomcat/commit/4998ad745b67edeadefe541c94ed029b53933d3b, https://github.com/apache/tomcat/commit/77c0ce2d169efa248b64b992e547aad549ec906b, https://github.com/apache/tomcat/commit/bb4624a9f3e69d495182ebfa68d7983076407a27, https://github.com/apache/tomcat/commit/e3703c9abb8fe0d5602f6ba8a8f11d4b6940815a, https://github.com/apache/tomcat, https://lists.apache.org/thread/71wvwprtx2j2m54fovq9zr7gbm2wow2f, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://security.netapp.com/advisory/ntap-20230921-0006, https://www.debian.org/security/2023/dsa-5521, https://www.debian.org/security/2023/dsa-5522</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-42252, https://github.com/apache/tomcat/commit/0d089a15047faf9cb3c82f80f4d28febd4798920, https://github.com/apache/tomcat/commit/4c7f4fd09d2cc1692112ef70b8ee23a7a037ae77, https://github.com/apache/tomcat/commit/a1c07906d8dcaf7957e5cc97f5cdbac7d18a205a, https://github.com/apache/tomcat/commit/c9fe754e5d17e262dfbd3eab2a03ca96ff372dc3, https://github.com/apache/tomcat, https://lists.apache.org/thread/zzcxzvqfdqn515zfs3dxb7n8gty589sq, https://security.gentoo.org/glsa/202305-37, https://tomcat.apache.org/security-10.html, https://tomcat.apache.org/security-8.html, https://tomcat.apache.org/security-9.html</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GHSA-qppj-fm5r-hxr3</t>
+          <t>GHSA-q3mw-pvr8-9ggc</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1784,32 +1784,32 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HTTP/2 Stream Cancellation Attack</t>
+          <t>Apache Tomcat Open Redirect vulnerability</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.0.0, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.16, 10.0.17, 10.0.18, 10.0.2, 10.0.20, 10.0.21, 10.0.22, 10.0.23, 10.0.26, 10.0.27, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.0.0, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.16, 10.0.17, 10.0.18, 10.0.2, 10.0.20, 10.0.21, 10.0.22, 10.0.23, 10.0.26, 10.0.27, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 9.3.0.v20150612, 9.3.1.v20150714, 9.3.10.M0, 9.3.10.v20160621, 9.3.11.M0, 9.3.11.v20160721, 9.3.12.v20160915, 9.3.13.M0, 9.3.13.v20161014, 9.3.14.v20161028, 9.3.15.v20161220, 9.3.16.v20170120, 9.3.17.RC0, 9.3.17.v20170317, 9.3.18.v20170406, 9.3.19.v20170502, 9.3.2.v20150730, 9.3.20.v20170531, 9.3.21.M0, 9.3.21.RC0, 9.3.21.v20170918, 9.3.22.v20171030, 9.3.23.v20180228, 9.3.24.v20180605, 9.3.25.v20180904, 9.3.26.v20190403, 9.3.27.v20190418, 9.3.28.v20191105, 9.3.29.v20201019, 9.3.3.v20150827, 9.3.30.v20211001, 9.3.4.RC0, 9.3.4.RC1, 9.3.4.v20151007, 9.3.5.v20151012, 9.3.6.v20151106, 9.3.7.RC0, 9.3.7.RC1, 9.3.7.v20160115, 9.3.8.RC0, 9.3.8.v20160314, 9.3.9.M0, 9.3.9.M1, 9.3.9.v20160517, 9.4.0.M0, 9.4.0.M1, 9.4.0.RC0, 9.4.0.RC1, 9.4.0.RC2, 9.4.0.RC3, 9.4.0.v20161208, 9.4.0.v20180619, 9.4.1.v20170120, 9.4.1.v20180619, 9.4.10.RC0, 9.4.10.RC1, 9.4.10.v20180503, 9.4.11.v20180605, 9.4.12.RC0, 9.4.12.RC1, 9.4.12.RC2, 9.4.12.v20180830, 9.4.13.v20181111, 9.4.14.v20181114, 9.4.15.v20190215, 9.4.16.v20190411, 9.4.17.v20190418, 9.4.18.v20190429, 9.4.19.v20190610, 9.4.2.v20170220, 9.4.2.v20180619, 9.4.20.v20190813, 9.4.21.v20190926, 9.4.22.v20191022, 9.4.23.v20191118, 9.4.24.v20191120, 9.4.25.v20191220, 9.4.26.v20200117, 9.4.27.v20200227, 9.4.28.v20200408, 9.4.29.v20200521, 9.4.3.v20170317, 9.4.3.v20180619, 9.4.30.v20200611, 9.4.31.v20200723, 9.4.32.v20200930, 9.4.33.v20201020, 9.4.34.v20201102, 9.4.35.v20201120, 9.4.36.v20210114, 9.4.37.v20210219, 9.4.38.v20210224, 9.4.39.v20210325, 9.4.4.v20170414, 9.4.4.v20180619, 9.4.40.v20210413, 9.4.41.v20210516, 9.4.42.v20210604, 9.4.43.v20210629, 9.4.44.v20210927, 9.4.45.v20220203, 9.4.46.v20220331, 9.4.47.v20220610, 9.4.48.v20220622, 9.4.49.v20220914, 9.4.5.v20170502, 9.4.5.v20180619, 9.4.50.v20221201, 9.4.51.v20230217, 9.4.52.v20230823, 9.4.6.v20170531, 9.4.6.v20180619, 9.4.7.RC0, 9.4.7.v20170914, 9.4.7.v20180619, 9.4.8.v20171121, 9.4.8.v20180619, 9.4.9.v20180320, 10.0.0, 10.0.1, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.15, 10.0.16, 10.0.2, 10.0.3, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.0.9, 11.0.0, 11.0.1, 11.0.10, 11.0.11, 11.0.12, 11.0.13, 11.0.14, 11.0.15, 11.0.16, 11.0.2, 11.0.3, 11.0.4, 11.0.5, 11.0.6, 11.0.7, 11.0.8, 11.0.9, 9.3.0.v20150612, 9.3.1.v20150714, 9.3.10.M0, 9.3.10.v20160621, 9.3.11.M0, 9.3.11.v20160721, 9.3.12.v20160915, 9.3.13.M0, 9.3.13.v20161014, 9.3.14.v20161028, 9.3.15.v20161220, 9.3.16.v20170120, 9.3.17.RC0, 9.3.17.v20170317, 9.3.18.v20170406, 9.3.19.v20170502, 9.3.2.v20150730, 9.3.20.v20170531, 9.3.21.M0, 9.3.21.RC0, 9.3.21.v20170918, 9.3.22.v20171030, 9.3.23.v20180228, 9.3.24.v20180605, 9.3.25.v20180904, 9.3.26.v20190403, 9.3.27.v20190418, 9.3.28.v20191105, 9.3.29.v20201019, 9.3.3.v20150827, 9.3.30.v20211001, 9.3.4.RC0, 9.3.4.RC1, 9.3.4.v20151007, 9.3.5.v20151012, 9.3.6.v20151106, 9.3.7.RC0, 9.3.7.RC1, 9.3.7.v20160115, 9.3.8.RC0, 9.3.8.v20160314, 9.3.9.M0, 9.3.9.M1, 9.3.9.v20160517, 9.4.0.M0, 9.4.0.M1, 9.4.0.RC0, 9.4.0.RC1, 9.4.0.RC2, 9.4.0.RC3, 9.4.0.v20161208, 9.4.0.v20180619, 9.4.1.v20170120, 9.4.1.v20180619, 9.4.10.RC0, 9.4.10.RC1, 9.4.10.v20180503, 9.4.11.v20180605, 9.4.12.RC0, 9.4.12.RC1, 9.4.12.RC2, 9.4.12.v20180830, 9.4.13.v20181111, 9.4.14.v20181114, 9.4.15.v20190215, 9.4.16.v20190411, 9.4.17.v20190418, 9.4.18.v20190429, 9.4.19.v20190610, 9.4.2.v20170220, 9.4.2.v20180619, 9.4.20.v20190813, 9.4.21.v20190926, 9.4.22.v20191022, 9.4.23.v20191118, 9.4.24.v20191120, 9.4.25.v20191220, 9.4.26.v20200117, 9.4.27.v20200227, 9.4.28.v20200408, 9.4.29.v20200521, 9.4.3.v20170317, 9.4.3.v20180619, 9.4.30.v20200611, 9.4.31.v20200723, 9.4.32.v20200930, 9.4.33.v20201020, 9.4.34.v20201102, 9.4.35.v20201120, 9.4.36.v20210114, 9.4.37.v20210219, 9.4.38.v20210224, 9.4.39.v20210325, 9.4.4.v20170414, 9.4.4.v20180619, 9.4.40.v20210413, 9.4.41.v20210516, 9.4.42.v20210604, 9.4.43.v20210629, 9.4.44.v20210927, 9.4.45.v20220203, 9.4.46.v20220331, 9.4.47.v20220610, 9.4.48.v20220622, 9.4.49.v20220914, 9.4.5.v20170502, 9.4.5.v20180619, 9.4.50.v20221201, 9.4.51.v20230217, 9.4.52.v20230823, 9.4.6.v20170531, 9.4.6.v20180619, 9.4.7.RC0, 9.4.7.v20170914, 9.4.7.v20180619, 9.4.8.v20171121, 9.4.8.v20180619, 9.4.9.v20180320, 10.0.0, 10.0.1, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.15, 10.0.16, 10.0.2, 10.0.3, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.0.9, 11.0.0, 11.0.1, 11.0.10, 11.0.11, 11.0.12, 11.0.13, 11.0.14, 11.0.15, 11.0.16, 11.0.2, 11.0.3, 11.0.4, 11.0.5, 11.0.6, 11.0.7, 11.0.8, 11.0.9, 12.0.0, 12.0.1, 12.0.0, 12.0.1, 3.0.0-RC1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.8, 10.1.9, 10.2.0, 10.2.0-M1, 10.2.0-RC1, 10.2.0-RC2, 10.2.1, 10.2.10, 10.2.2, 10.2.3, 10.2.4, 10.2.5, 10.2.5-M1, 10.2.5-M2, 10.2.6, 10.2.7, 10.2.8, 10.2.9, 10.4.0, 10.4.0-M1, 10.4.0-M2, 10.5.0, 10.5.0-M1, 10.5.1, 10.5.2, 10.0.0, 10.0.0-RC2, 10.0.1, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.15, 10.0.2, 10.0.3, 10.0.4, 10.0.5, 10.0.6, 10.0.6+7-e2ba6752, 10.0.7, 10.0.8, 10.0.9, 10.1.0, 10.1.0-RC1, 10.1.0-RC2, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.2, 10.1.3, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 10.2.0, 10.2.0-M1, 10.2.0-RC1, 10.2.0-RC2, 10.2.1, 10.2.10, 10.2.2, 10.2.3, 10.2.4, 10.2.5, 10.2.5-M1, 10.2.5-M2, 10.2.6, 10.2.7, 10.2.8, 10.2.9, 10.4.0, 10.4.0-M1, 10.4.0-M2, 10.5.0, 10.5.0-M1, 10.5.1, 10.5.2, 10.0.0, 10.0.0-RC2, 10.0.1, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.15, 10.0.2, 10.0.3, 10.0.4, 10.0.5, 10.0.6, 10.0.6+7-e2ba6752, 10.0.7, 10.0.8, 10.0.9, 10.1.0, 10.1.0-RC1, 10.1.0-RC2, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.2, 10.1.3, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 2.4-ARTERY-M1, 2.4-ARTERY-M2, 2.4-ARTERY-M3, 2.4-ARTERY-M4, 2.4.10, 2.4.11, 2.4.11.1, 2.4.11.2, 2.4.2, 2.4.2-RC1, 2.4.2-RC2, 2.4.2-RC3, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.4.9-RC1, 2.4.9-RC2, 3.0.0-RC1</t>
+          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 11.0.0-M1, 11.0.0-M10, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.28.0, 0.17.0, 1.58.3, 1.57.1, 1.56.3, 11.0.0-M12, 10.1.14, 9.0.81, 8.5.94, 11.0.0-M12, 10.1.14, 9.0.81, 8.5.94, 9.4.53, 10.0.17, 11.0.17, 9.4.53, 10.0.17, 11.0.17, 12.0.2, 12.0.2, 10.5.3, 10.5.3, 10.5.3</t>
+          <t>11.0.0-M11, 10.1.13, 9.0.80, 8.5.93, 8.5.93, 9.0.80, 10.1.13, 11.0.0-M11</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CWE-400</t>
+          <t>CWE-601</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>BIT-apisix-2023-44487, BIT-aspnet-core-2023-44487, BIT-contour-2023-44487, BIT-dotnet-2023-44487, BIT-dotnet-sdk-2023-44487, BIT-envoy-2023-44487, BIT-golang-2023-44487, BIT-jenkins-2023-44487, BIT-kong-2023-44487, BIT-nginx-2023-44487, BIT-nginx-ingress-controller-2023-44487, BIT-node-2023-44487, BIT-node-min-2023-44487, BIT-solr-2023-44487, BIT-tomcat-2023-44487, BIT-varnish-2023-44487, CGA-4mmr-qwxr-f88g, CGA-5jp5-95p2-jw83, CGA-5v4r-558c-254r, CGA-9w4r-68hh-64j5, CGA-m49h-wjp5-j434, CGA-mp43-q6p3-96v2, CVE-2023-44487, GHSA-m425-mq94-257g, GO-2023-2153</t>
+          <t>BIT-tomcat-2023-41080, CVE-2023-41080</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://github.com/apple/swift-nio-http2/security/advisories/GHSA-qppj-fm5r-hxr3, https://github.com/h2o/h2o/security/advisories/GHSA-2m7v-gc89-fjqf, https://nvd.nist.gov/vuln/detail/CVE-2023-44487, https://github.com/apache/apisix/issues/10320, https://github.com/alibaba/tengine/issues/1872, https://github.com/caddyserver/caddy/issues/5877, https://github.com/akka/akka-http/issues/4323, https://github.com/dotnet/announcements/issues/277, https://github.com/eclipse/jetty.project/issues/10679, https://github.com/etcd-io/etcd/issues/16740, https://github.com/Azure/AKS/issues/3947, https://github.com/golang/go/issues/63417, https://github.com/varnishcache/varnish-cache/issues/3996, https://github.com/tempesta-tech/tempesta/issues/1986, https://github.com/haproxy/haproxy/issues/2312, https://github.com/hyperium/hyper/issues/3337, https://github.com/openresty/openresty/issues/930, https://github.com/junkurihara/rust-rpxy/issues/97, https://github.com/ninenines/cowboy/issues/1615, https://github.com/kazu-yamamoto/http2/issues/93, https://github.com/opensearch-project/data-prepper/issues/3474, https://github.com/apache/trafficserver/pull/10564, https://github.com/nodejs/node/pull/50121, https://github.com/nghttp2/nghttp2/pull/1961, https://github.com/microsoft/CBL-Mariner/pull/6381, https://github.com/linkerd/website/pull/1695/commits/4b9c6836471bc8270ab48aae6fd2181bc73fd632, https://github.com/line/armeria/pull/5232, https://github.com/envoyproxy/envoy/pull/30055, https://github.com/kubernetes/kubernetes/pull/121120, https://github.com/facebook/proxygen/pull/466, https://github.com/grpc/grpc-go/pull/6703, https://github.com/projectcontour/contour/pull/5826, https://github.com/h2o/h2o/pull/3291, https://github.com/apache/httpd-site/pull/10, https://github.com/akka/akka-http/pull/4325, https://github.com/akka/akka-http/pull/4324, https://github.com/apache/tomcat/commit/944332bb15bd2f3bf76ec2caeb1ff0a58a3bc628, https://github.com/kazu-yamamoto/http2/commit/f61d41a502bd0f60eb24e1ce14edc7b6df6722a1, https://github.com/netty/netty/commit/58f75f665aa81a8cbcf6ffa74820042a285c5e61, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/JIZSEFC3YKCGABA2BZW6ZJRMDZJMB7PJ, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/HT7T2R4MQKLIF4ODV4BDLPARWFPCJ5CZ, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/FNA62Q767CFAFHBCDKYNPBMZWB7TWYVU, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/E72T67UPDRXHIDLO3OROR25YAMN4GGW5, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/CLB4TW7KALB3EEQWNWCN7OUIWWVWWCG2, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/BFQD3KUEMFBHPAPBGLWQC34L4OWL5HAZ, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/3N4NJ7FR4X4FPZUGNTQAPSTVB2HB2Y4A, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/2MBEPPC36UBVOZZNAXFHKLFGSLCMN5LI, https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-44487, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/ZLU6U2R2IC2K64NDPNMV55AUAO65MAF4, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/ZKQSIKIAT5TJ3WSLU3RDBQ35YX4GY4V3, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/ZB43REMKRQR62NJEI7I5NQ4FSXNLBKRT, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/XFOIBB4YFICHDM7IBOP7PWXW3FX4HLL2, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/X6QXN4ORIVF6XBW4WWFE7VNPVC74S45Y, https://access.redhat.com/security/cve/cve-2023-44487, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/ZLU6U2R2IC2K64NDPNMV55AUAO65MAF4, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/ZKQSIKIAT5TJ3WSLU3RDBQ35YX4GY4V3, https://lists.w3.org/Archives/Public/ietf-http-wg/2023OctDec/0025.html, https://mailman.nginx.org/pipermail/nginx-devel/2023-October/S36Q5HBXR7CAIMPLLPRSSSYR4PCMWILK.html, https://martinthomson.github.io/h2-stream-limits/draft-thomson-httpbis-h2-stream-limits.html, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/ZB43REMKRQR62NJEI7I5NQ4FSXNLBKRT, https://msrc.microsoft.com/blog/2023/10/microsoft-response-to-distributed-denial-of-service-ddos-attacks-against-http/2, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/XFOIBB4YFICHDM7IBOP7PWXW3FX4HLL2, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/X6QXN4ORIVF6XBW4WWFE7VNPVC74S45Y, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/WLPRQ5TWUQQXYWBJM7ECYDAIL2YVKIUH, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/WE2I52RHNNU42PX6NZ2RBUHSFFJ2LVZX, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/VSRDIV77HNKUSM7SJC5BKE5JSHLHU2NK, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/VHUHTSXLXGXS7JYKBXTA3VINUPHTNGVU, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/LNMZJCDHGLJJLXO4OXWJMTVQRNWOC7UL, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/LKYHSZQFDNR7RSA7LHVLLIAQMVYCUGBG, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/KSEGD2IWKNUO3DWY4KQGUQM5BISRWHQE, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/JMEXY22BFG5Q64HQCM5CK2Q7KDKVV4TY, https://ubuntu.com/security/CVE-2023-44487, https://www.bleepingcomputer.com/news/security/new-http-2-rapid-reset-zero-day-attack-breaks-ddos-records, https://www.cisa.gov/news-events/alerts/2023/10/10/http2-rapid-reset-vulnerability-cve-2023-44487, https://www.darkreading.com/cloud/internet-wide-zero-day-bug-fuels-largest-ever-ddos-event, https://www.debian.org/security/2023/dsa-5521, https://www.debian.org/security/2023/dsa-5522, https://www.debian.org/security/2023/dsa-5540, https://www.debian.org/security/2023/dsa-5549, https://www.debian.org/security/2023/dsa-5558, https://www.debian.org/security/2023/dsa-5570, https://www.eclipse.org/lists/jetty-announce/msg00181.html, https://www.haproxy.com/blog/haproxy-is-not-affected-by-the-http-2-rapid-reset-attack-cve-2023-44487, https://www.netlify.com/blog/netlify-successfully-mitigates-cve-2023-44487, https://www.nginx.com/blog/http-2-rapid-reset-attack-impacting-f5-nginx-products, https://www.openwall.com/lists/oss-security/2023/10/10/6, https://www.phoronix.com/news/HTTP2-Rapid-Reset-Attack, https://www.theregister.com/2023/10/10/http2_rapid_reset_zeroday, https://www.vicarius.io/vsociety/posts/rapid-reset-cve-2023-44487-dos-in-http2-understanding-the-root-cause, https://my.f5.com/manage/s/article/K000137106, https://netty.io/news/2023/10/10/4-1-100-Final.html, https://news.ycombinator.com/item?id=37830987, https://news.ycombinator.com/item?id=37830998, https://news.ycombinator.com/item?id=37831062, https://news.ycombinator.com/item?id=37837043, https://openssf.org/blog/2023/10/10/http-2-rapid-reset-vulnerability-highlights-need-for-rapid-response, https://seanmonstar.com/post/730794151136935936/hyper-http2-rapid-reset-unaffected, https://security.gentoo.org/glsa/202311-09, https://security.netapp.com/advisory/ntap-20231016-0001, https://security.netapp.com/advisory/ntap-20240426-0007, https://security.netapp.com/advisory/ntap-20240621-0006, https://security.netapp.com/advisory/ntap-20240621-0007, https://security.paloaltonetworks.com/CVE-2023-44487, https://tomcat.apache.org/security-10.html#Fixed_in_Apache_Tomcat_10.1.14, https://tomcat.apache.org/security-11.html#Fixed_in_Apache_Tomcat_11.0.0-M12, https://tomcat.apache.org/security-8.html#Fixed_in_Apache_Tomcat_8.5.94, https://tomcat.apache.org/security-9.html#Fixed_in_Apache_Tomcat_9.0.81, https://edg.io/lp/blog/resets-leaks-ddos-and-the-tale-of-a-hidden-cve, https://forums.swift.org/t/swift-nio-http2-security-update-cve-2023-44487-http-2-dos/67764, https://gist.github.com/adulau/7c2bfb8e9cdbe4b35a5e131c66a0c088, https://github.com/Kong/kong/discussions/11741, https://github.com/advisories/GHSA-qppj-fm5r-hxr3, https://github.com/advisories/GHSA-vx74-f528-fxqg, https://github.com/advisories/GHSA-xpw8-rcwv-8f8p, https://github.com/apache/httpd/blob/afcdbeebbff4b0c50ea26cdd16e178c0d1f24152/modules/http2/h2_mplx.c#L1101-L1113, https://github.com/apache/tomcat/tree/main/java/org/apache/coyote/http2, https://github.com/apple/swift-nio-http2, https://github.com/arkrwn/PoC/tree/main/CVE-2023-44487, https://github.com/bcdannyboy/CVE-2023-44487, https://github.com/caddyserver/caddy/releases/tag/v2.7.5, https://github.com/dotnet/core/blob/e4613450ea0da7fd2fc6b61dfb2c1c1dec1ce9ec/release-notes/6.0/6.0.23/6.0.23.md?plain=1#L73, https://github.com/grpc/grpc-go/releases, https://github.com/grpc/grpc/releases/tag/v1.59.2, https://github.com/icing/mod_h2/blob/0a864782af0a942aa2ad4ed960a6b32cd35bcf0a/mod_http2/README.md?plain=1#L239-L244, https://akka.io/security/akka-http-cve-2023-44487.html, https://arstechnica.com/security/2023/10/how-ddosers-used-the-http-2-protocol-to-deliver-attacks-of-unprecedented-size, https://aws.amazon.com/security/security-bulletins/AWS-2023-011, https://blog.cloudflare.com/technical-breakdown-http2-rapid-reset-ddos-attack, https://blog.cloudflare.com/zero-day-rapid-reset-http2-record-breaking-ddos-attack, https://blog.litespeedtech.com/2023/10/11/rapid-reset-http-2-vulnerablilty, https://blog.qualys.com/vulnerabilities-threat-research/2023/10/10/cve-2023-44487-http-2-rapid-reset-attack, https://blog.vespa.ai/cve-2023-44487, https://bugzilla.proxmox.com/show_bug.cgi?id=4988, https://bugzilla.redhat.com/show_bug.cgi?id=2242803, https://bugzilla.suse.com/show_bug.cgi?id=1216123, https://cgit.freebsd.org/ports/commit/?id=c64c329c2c1752f46b73e3e6ce9f4329be6629f9, https://chaos.social/@icing/111210915918780532, https://cloud.google.com/blog/products/identity-security/google-cloud-mitigated-largest-ddos-attack-peaking-above-398-million-rps, https://cloud.google.com/blog/products/identity-security/how-it-works-the-novel-http2-rapid-reset-ddos-attack, https://community.traefik.io/t/is-traefik-vulnerable-to-cve-2023-44487/20125, https://discuss.hashicorp.com/t/hcsec-2023-32-vault-consul-and-boundary-affected-by-http-2-rapid-reset-denial-of-service-vulnerability-cve-2023-44487/59715, https://lists.debian.org/debian-lts-announce/2023/11/msg00012.html, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/2MBEPPC36UBVOZZNAXFHKLFGSLCMN5LI, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/3N4NJ7FR4X4FPZUGNTQAPSTVB2HB2Y4A, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/BFQD3KUEMFBHPAPBGLWQC34L4OWL5HAZ, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/CLB4TW7KALB3EEQWNWCN7OUIWWVWWCG2, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/E72T67UPDRXHIDLO3OROR25YAMN4GGW5, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/FNA62Q767CFAFHBCDKYNPBMZWB7TWYVU, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/HT7T2R4MQKLIF4ODV4BDLPARWFPCJ5CZ, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/JIZSEFC3YKCGABA2BZW6ZJRMDZJMB7PJ, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/JMEXY22BFG5Q64HQCM5CK2Q7KDKVV4TY, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/KSEGD2IWKNUO3DWY4KQGUQM5BISRWHQE, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/LKYHSZQFDNR7RSA7LHVLLIAQMVYCUGBG, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/LNMZJCDHGLJJLXO4OXWJMTVQRNWOC7UL, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/VHUHTSXLXGXS7JYKBXTA3VINUPHTNGVU, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/VSRDIV77HNKUSM7SJC5BKE5JSHLHU2NK, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/WE2I52RHNNU42PX6NZ2RBUHSFFJ2LVZX, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/WLPRQ5TWUQQXYWBJM7ECYDAIL2YVKIUH, https://github.com/micrictor/http2-rst-stream, https://github.com/nghttp2/nghttp2/releases/tag/v1.57.0, https://github.com/oqtane/oqtane.framework/discussions/3367, https://go.dev/cl/534215, https://go.dev/cl/534235, https://go.dev/issue/63417, https://groups.google.com/g/golang-announce/c/iNNxDTCjZvo, https://groups.google.com/g/golang-announce/c/iNNxDTCjZvo/m/UDd7VKQuAAAJ, https://istio.io/latest/news/security/istio-security-2023-004, https://linkerd.io/2023/10/12/linkerd-cve-2023-44487, https://lists.apache.org/thread/5py8h42mxfsn8l1wy6o41xwhsjlsd87q, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://lists.debian.org/debian-lts-announce/2023/10/msg00023.html, https://lists.debian.org/debian-lts-announce/2023/10/msg00024.html, https://lists.debian.org/debian-lts-announce/2023/10/msg00045.html, https://lists.debian.org/debian-lts-announce/2023/10/msg00047.html, https://lists.debian.org/debian-lts-announce/2023/11/msg00001.html, http://www.openwall.com/lists/oss-security/2023/10/10/6, http://www.openwall.com/lists/oss-security/2023/10/10/7, http://www.openwall.com/lists/oss-security/2023/10/13/4, http://www.openwall.com/lists/oss-security/2023/10/13/9, http://www.openwall.com/lists/oss-security/2023/10/18/4, http://www.openwall.com/lists/oss-security/2023/10/18/8, http://www.openwall.com/lists/oss-security/2023/10/19/6, http://www.openwall.com/lists/oss-security/2023/10/20/8</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-41080, https://github.com/apache/tomcat/commit/4998ad745b67edeadefe541c94ed029b53933d3b, https://github.com/apache/tomcat/commit/77c0ce2d169efa248b64b992e547aad549ec906b, https://github.com/apache/tomcat/commit/bb4624a9f3e69d495182ebfa68d7983076407a27, https://github.com/apache/tomcat/commit/e3703c9abb8fe0d5602f6ba8a8f11d4b6940815a, https://github.com/apache/tomcat, https://lists.apache.org/thread/71wvwprtx2j2m54fovq9zr7gbm2wow2f, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://security.netapp.com/advisory/ntap-20230921-0006, https://www.debian.org/security/2023/dsa-5521, https://www.debian.org/security/2023/dsa-5522</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GHSA-r6j3-px5g-cq3x</t>
+          <t>GHSA-qppj-fm5r-hxr3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1841,32 +1841,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Apache Tomcat Improper Input Validation vulnerability</t>
+          <t>HTTP/2 Stream Cancellation Attack</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93</t>
+          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.0.0, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.16, 10.0.17, 10.0.18, 10.0.2, 10.0.20, 10.0.21, 10.0.22, 10.0.23, 10.0.26, 10.0.27, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.0.0, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.16, 10.0.17, 10.0.18, 10.0.2, 10.0.20, 10.0.21, 10.0.22, 10.0.23, 10.0.26, 10.0.27, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 9.3.0.v20150612, 9.3.1.v20150714, 9.3.10.M0, 9.3.10.v20160621, 9.3.11.M0, 9.3.11.v20160721, 9.3.12.v20160915, 9.3.13.M0, 9.3.13.v20161014, 9.3.14.v20161028, 9.3.15.v20161220, 9.3.16.v20170120, 9.3.17.RC0, 9.3.17.v20170317, 9.3.18.v20170406, 9.3.19.v20170502, 9.3.2.v20150730, 9.3.20.v20170531, 9.3.21.M0, 9.3.21.RC0, 9.3.21.v20170918, 9.3.22.v20171030, 9.3.23.v20180228, 9.3.24.v20180605, 9.3.25.v20180904, 9.3.26.v20190403, 9.3.27.v20190418, 9.3.28.v20191105, 9.3.29.v20201019, 9.3.3.v20150827, 9.3.30.v20211001, 9.3.4.RC0, 9.3.4.RC1, 9.3.4.v20151007, 9.3.5.v20151012, 9.3.6.v20151106, 9.3.7.RC0, 9.3.7.RC1, 9.3.7.v20160115, 9.3.8.RC0, 9.3.8.v20160314, 9.3.9.M0, 9.3.9.M1, 9.3.9.v20160517, 9.4.0.M0, 9.4.0.M1, 9.4.0.RC0, 9.4.0.RC1, 9.4.0.RC2, 9.4.0.RC3, 9.4.0.v20161208, 9.4.0.v20180619, 9.4.1.v20170120, 9.4.1.v20180619, 9.4.10.RC0, 9.4.10.RC1, 9.4.10.v20180503, 9.4.11.v20180605, 9.4.12.RC0, 9.4.12.RC1, 9.4.12.RC2, 9.4.12.v20180830, 9.4.13.v20181111, 9.4.14.v20181114, 9.4.15.v20190215, 9.4.16.v20190411, 9.4.17.v20190418, 9.4.18.v20190429, 9.4.19.v20190610, 9.4.2.v20170220, 9.4.2.v20180619, 9.4.20.v20190813, 9.4.21.v20190926, 9.4.22.v20191022, 9.4.23.v20191118, 9.4.24.v20191120, 9.4.25.v20191220, 9.4.26.v20200117, 9.4.27.v20200227, 9.4.28.v20200408, 9.4.29.v20200521, 9.4.3.v20170317, 9.4.3.v20180619, 9.4.30.v20200611, 9.4.31.v20200723, 9.4.32.v20200930, 9.4.33.v20201020, 9.4.34.v20201102, 9.4.35.v20201120, 9.4.36.v20210114, 9.4.37.v20210219, 9.4.38.v20210224, 9.4.39.v20210325, 9.4.4.v20170414, 9.4.4.v20180619, 9.4.40.v20210413, 9.4.41.v20210516, 9.4.42.v20210604, 9.4.43.v20210629, 9.4.44.v20210927, 9.4.45.v20220203, 9.4.46.v20220331, 9.4.47.v20220610, 9.4.48.v20220622, 9.4.49.v20220914, 9.4.5.v20170502, 9.4.5.v20180619, 9.4.50.v20221201, 9.4.51.v20230217, 9.4.52.v20230823, 9.4.6.v20170531, 9.4.6.v20180619, 9.4.7.RC0, 9.4.7.v20170914, 9.4.7.v20180619, 9.4.8.v20171121, 9.4.8.v20180619, 9.4.9.v20180320, 10.0.0, 10.0.1, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.15, 10.0.16, 10.0.2, 10.0.3, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.0.9, 11.0.0, 11.0.1, 11.0.10, 11.0.11, 11.0.12, 11.0.13, 11.0.14, 11.0.15, 11.0.16, 11.0.2, 11.0.3, 11.0.4, 11.0.5, 11.0.6, 11.0.7, 11.0.8, 11.0.9, 9.3.0.v20150612, 9.3.1.v20150714, 9.3.10.M0, 9.3.10.v20160621, 9.3.11.M0, 9.3.11.v20160721, 9.3.12.v20160915, 9.3.13.M0, 9.3.13.v20161014, 9.3.14.v20161028, 9.3.15.v20161220, 9.3.16.v20170120, 9.3.17.RC0, 9.3.17.v20170317, 9.3.18.v20170406, 9.3.19.v20170502, 9.3.2.v20150730, 9.3.20.v20170531, 9.3.21.M0, 9.3.21.RC0, 9.3.21.v20170918, 9.3.22.v20171030, 9.3.23.v20180228, 9.3.24.v20180605, 9.3.25.v20180904, 9.3.26.v20190403, 9.3.27.v20190418, 9.3.28.v20191105, 9.3.29.v20201019, 9.3.3.v20150827, 9.3.30.v20211001, 9.3.4.RC0, 9.3.4.RC1, 9.3.4.v20151007, 9.3.5.v20151012, 9.3.6.v20151106, 9.3.7.RC0, 9.3.7.RC1, 9.3.7.v20160115, 9.3.8.RC0, 9.3.8.v20160314, 9.3.9.M0, 9.3.9.M1, 9.3.9.v20160517, 9.4.0.M0, 9.4.0.M1, 9.4.0.RC0, 9.4.0.RC1, 9.4.0.RC2, 9.4.0.RC3, 9.4.0.v20161208, 9.4.0.v20180619, 9.4.1.v20170120, 9.4.1.v20180619, 9.4.10.RC0, 9.4.10.RC1, 9.4.10.v20180503, 9.4.11.v20180605, 9.4.12.RC0, 9.4.12.RC1, 9.4.12.RC2, 9.4.12.v20180830, 9.4.13.v20181111, 9.4.14.v20181114, 9.4.15.v20190215, 9.4.16.v20190411, 9.4.17.v20190418, 9.4.18.v20190429, 9.4.19.v20190610, 9.4.2.v20170220, 9.4.2.v20180619, 9.4.20.v20190813, 9.4.21.v20190926, 9.4.22.v20191022, 9.4.23.v20191118, 9.4.24.v20191120, 9.4.25.v20191220, 9.4.26.v20200117, 9.4.27.v20200227, 9.4.28.v20200408, 9.4.29.v20200521, 9.4.3.v20170317, 9.4.3.v20180619, 9.4.30.v20200611, 9.4.31.v20200723, 9.4.32.v20200930, 9.4.33.v20201020, 9.4.34.v20201102, 9.4.35.v20201120, 9.4.36.v20210114, 9.4.37.v20210219, 9.4.38.v20210224, 9.4.39.v20210325, 9.4.4.v20170414, 9.4.4.v20180619, 9.4.40.v20210413, 9.4.41.v20210516, 9.4.42.v20210604, 9.4.43.v20210629, 9.4.44.v20210927, 9.4.45.v20220203, 9.4.46.v20220331, 9.4.47.v20220610, 9.4.48.v20220622, 9.4.49.v20220914, 9.4.5.v20170502, 9.4.5.v20180619, 9.4.50.v20221201, 9.4.51.v20230217, 9.4.52.v20230823, 9.4.6.v20170531, 9.4.6.v20180619, 9.4.7.RC0, 9.4.7.v20170914, 9.4.7.v20180619, 9.4.8.v20171121, 9.4.8.v20180619, 9.4.9.v20180320, 10.0.0, 10.0.1, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.15, 10.0.16, 10.0.2, 10.0.3, 10.0.4, 10.0.5, 10.0.6, 10.0.7, 10.0.8, 10.0.9, 11.0.0, 11.0.1, 11.0.10, 11.0.11, 11.0.12, 11.0.13, 11.0.14, 11.0.15, 11.0.16, 11.0.2, 11.0.3, 11.0.4, 11.0.5, 11.0.6, 11.0.7, 11.0.8, 11.0.9, 12.0.0, 12.0.1, 12.0.0, 12.0.1, 3.0.0-RC1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.8, 10.1.9, 10.2.0, 10.2.0-M1, 10.2.0-RC1, 10.2.0-RC2, 10.2.1, 10.2.10, 10.2.2, 10.2.3, 10.2.4, 10.2.5, 10.2.5-M1, 10.2.5-M2, 10.2.6, 10.2.7, 10.2.8, 10.2.9, 10.4.0, 10.4.0-M1, 10.4.0-M2, 10.5.0, 10.5.0-M1, 10.5.1, 10.5.2, 10.0.0, 10.0.0-RC2, 10.0.1, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.15, 10.0.2, 10.0.3, 10.0.4, 10.0.5, 10.0.6, 10.0.6+7-e2ba6752, 10.0.7, 10.0.8, 10.0.9, 10.1.0, 10.1.0-RC1, 10.1.0-RC2, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.2, 10.1.3, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 10.2.0, 10.2.0-M1, 10.2.0-RC1, 10.2.0-RC2, 10.2.1, 10.2.10, 10.2.2, 10.2.3, 10.2.4, 10.2.5, 10.2.5-M1, 10.2.5-M2, 10.2.6, 10.2.7, 10.2.8, 10.2.9, 10.4.0, 10.4.0-M1, 10.4.0-M2, 10.5.0, 10.5.0-M1, 10.5.1, 10.5.2, 10.0.0, 10.0.0-RC2, 10.0.1, 10.0.10, 10.0.11, 10.0.12, 10.0.13, 10.0.14, 10.0.15, 10.0.2, 10.0.3, 10.0.4, 10.0.5, 10.0.6, 10.0.6+7-e2ba6752, 10.0.7, 10.0.8, 10.0.9, 10.1.0, 10.1.0-RC1, 10.1.0-RC2, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.2, 10.1.3, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 2.4-ARTERY-M1, 2.4-ARTERY-M2, 2.4-ARTERY-M3, 2.4-ARTERY-M4, 2.4.10, 2.4.11, 2.4.11.1, 2.4.11.2, 2.4.2, 2.4.2-RC1, 2.4.2-RC2, 2.4.2-RC3, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.4.9-RC1, 2.4.9-RC2, 3.0.0-RC1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>11.0.0-M12, 10.1.14, 9.0.81, 8.5.94, 11.0.0-M12, 10.1.14, 9.0.81, 8.5.94</t>
+          <t>1.28.0, 0.17.0, 1.58.3, 1.57.1, 1.56.3, 11.0.0-M12, 10.1.14, 9.0.81, 8.5.94, 11.0.0-M12, 10.1.14, 9.0.81, 8.5.94, 9.4.53, 10.0.17, 11.0.17, 9.4.53, 10.0.17, 11.0.17, 12.0.2, 12.0.2, 10.5.3, 10.5.3, 10.5.3</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CWE-20</t>
+          <t>CWE-400</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>BIT-tomcat-2023-45648, CVE-2023-45648</t>
+          <t>BIT-apisix-2023-44487, BIT-aspnet-core-2023-44487, BIT-contour-2023-44487, BIT-dotnet-2023-44487, BIT-dotnet-sdk-2023-44487, BIT-envoy-2023-44487, BIT-golang-2023-44487, BIT-jenkins-2023-44487, BIT-kong-2023-44487, BIT-nginx-2023-44487, BIT-nginx-ingress-controller-2023-44487, BIT-node-2023-44487, BIT-node-min-2023-44487, BIT-solr-2023-44487, BIT-tomcat-2023-44487, BIT-varnish-2023-44487, CGA-4mmr-qwxr-f88g, CGA-5jp5-95p2-jw83, CGA-5v4r-558c-254r, CGA-9w4r-68hh-64j5, CGA-m49h-wjp5-j434, CGA-mp43-q6p3-96v2, CVE-2023-44487, GHSA-m425-mq94-257g, GO-2023-2153</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-45648, https://github.com/apache/tomcat/commit/59583245639d8c42ae0009f4a4a70464d3ea70a0, https://github.com/apache/tomcat/commit/8ecff306507be8e4fd3adee1ae5de1ea6661a8f4, https://github.com/apache/tomcat/commit/c83fe47725f7ae9ae213568d9039171124fb7ec6, https://github.com/apache/tomcat/commit/eb5c094e5560764cda436362254997511a3ca1f6, https://github.com/apache/tomcat, https://lists.apache.org/thread/2pv8yz1pyp088tsxfb7ogltk9msk0jdp, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://security.netapp.com/advisory/ntap-20231103-0007, https://www.debian.org/security/2023/dsa-5521, https://www.debian.org/security/2023/dsa-5522, http://www.openwall.com/lists/oss-security/2023/10/10/10</t>
+          <t>https://github.com/apple/swift-nio-http2/security/advisories/GHSA-qppj-fm5r-hxr3, https://github.com/h2o/h2o/security/advisories/GHSA-2m7v-gc89-fjqf, https://nvd.nist.gov/vuln/detail/CVE-2023-44487, https://github.com/apache/apisix/issues/10320, https://github.com/alibaba/tengine/issues/1872, https://github.com/caddyserver/caddy/issues/5877, https://github.com/akka/akka-http/issues/4323, https://github.com/dotnet/announcements/issues/277, https://github.com/eclipse/jetty.project/issues/10679, https://github.com/etcd-io/etcd/issues/16740, https://github.com/Azure/AKS/issues/3947, https://github.com/golang/go/issues/63417, https://github.com/varnishcache/varnish-cache/issues/3996, https://github.com/tempesta-tech/tempesta/issues/1986, https://github.com/haproxy/haproxy/issues/2312, https://github.com/hyperium/hyper/issues/3337, https://github.com/openresty/openresty/issues/930, https://github.com/junkurihara/rust-rpxy/issues/97, https://github.com/ninenines/cowboy/issues/1615, https://github.com/kazu-yamamoto/http2/issues/93, https://github.com/opensearch-project/data-prepper/issues/3474, https://github.com/apache/trafficserver/pull/10564, https://github.com/nodejs/node/pull/50121, https://github.com/nghttp2/nghttp2/pull/1961, https://github.com/microsoft/CBL-Mariner/pull/6381, https://github.com/linkerd/website/pull/1695/commits/4b9c6836471bc8270ab48aae6fd2181bc73fd632, https://github.com/line/armeria/pull/5232, https://github.com/envoyproxy/envoy/pull/30055, https://github.com/kubernetes/kubernetes/pull/121120, https://github.com/facebook/proxygen/pull/466, https://github.com/grpc/grpc-go/pull/6703, https://github.com/projectcontour/contour/pull/5826, https://github.com/h2o/h2o/pull/3291, https://github.com/apache/httpd-site/pull/10, https://github.com/akka/akka-http/pull/4325, https://github.com/akka/akka-http/pull/4324, https://github.com/apache/tomcat/commit/944332bb15bd2f3bf76ec2caeb1ff0a58a3bc628, https://github.com/kazu-yamamoto/http2/commit/f61d41a502bd0f60eb24e1ce14edc7b6df6722a1, https://github.com/netty/netty/commit/58f75f665aa81a8cbcf6ffa74820042a285c5e61, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/JIZSEFC3YKCGABA2BZW6ZJRMDZJMB7PJ, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/HT7T2R4MQKLIF4ODV4BDLPARWFPCJ5CZ, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/FNA62Q767CFAFHBCDKYNPBMZWB7TWYVU, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/E72T67UPDRXHIDLO3OROR25YAMN4GGW5, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/CLB4TW7KALB3EEQWNWCN7OUIWWVWWCG2, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/BFQD3KUEMFBHPAPBGLWQC34L4OWL5HAZ, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/3N4NJ7FR4X4FPZUGNTQAPSTVB2HB2Y4A, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/2MBEPPC36UBVOZZNAXFHKLFGSLCMN5LI, https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-44487, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/ZLU6U2R2IC2K64NDPNMV55AUAO65MAF4, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/ZKQSIKIAT5TJ3WSLU3RDBQ35YX4GY4V3, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/ZB43REMKRQR62NJEI7I5NQ4FSXNLBKRT, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/XFOIBB4YFICHDM7IBOP7PWXW3FX4HLL2, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/X6QXN4ORIVF6XBW4WWFE7VNPVC74S45Y, https://access.redhat.com/security/cve/cve-2023-44487, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/ZLU6U2R2IC2K64NDPNMV55AUAO65MAF4, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/ZKQSIKIAT5TJ3WSLU3RDBQ35YX4GY4V3, https://lists.w3.org/Archives/Public/ietf-http-wg/2023OctDec/0025.html, https://mailman.nginx.org/pipermail/nginx-devel/2023-October/S36Q5HBXR7CAIMPLLPRSSSYR4PCMWILK.html, https://martinthomson.github.io/h2-stream-limits/draft-thomson-httpbis-h2-stream-limits.html, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/ZB43REMKRQR62NJEI7I5NQ4FSXNLBKRT, https://msrc.microsoft.com/blog/2023/10/microsoft-response-to-distributed-denial-of-service-ddos-attacks-against-http/2, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/XFOIBB4YFICHDM7IBOP7PWXW3FX4HLL2, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/X6QXN4ORIVF6XBW4WWFE7VNPVC74S45Y, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/WLPRQ5TWUQQXYWBJM7ECYDAIL2YVKIUH, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/WE2I52RHNNU42PX6NZ2RBUHSFFJ2LVZX, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/VSRDIV77HNKUSM7SJC5BKE5JSHLHU2NK, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/VHUHTSXLXGXS7JYKBXTA3VINUPHTNGVU, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/LNMZJCDHGLJJLXO4OXWJMTVQRNWOC7UL, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/LKYHSZQFDNR7RSA7LHVLLIAQMVYCUGBG, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/KSEGD2IWKNUO3DWY4KQGUQM5BISRWHQE, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/JMEXY22BFG5Q64HQCM5CK2Q7KDKVV4TY, https://ubuntu.com/security/CVE-2023-44487, https://www.bleepingcomputer.com/news/security/new-http-2-rapid-reset-zero-day-attack-breaks-ddos-records, https://www.cisa.gov/news-events/alerts/2023/10/10/http2-rapid-reset-vulnerability-cve-2023-44487, https://www.darkreading.com/cloud/internet-wide-zero-day-bug-fuels-largest-ever-ddos-event, https://www.debian.org/security/2023/dsa-5521, https://www.debian.org/security/2023/dsa-5522, https://www.debian.org/security/2023/dsa-5540, https://www.debian.org/security/2023/dsa-5549, https://www.debian.org/security/2023/dsa-5558, https://www.debian.org/security/2023/dsa-5570, https://www.eclipse.org/lists/jetty-announce/msg00181.html, https://www.haproxy.com/blog/haproxy-is-not-affected-by-the-http-2-rapid-reset-attack-cve-2023-44487, https://www.netlify.com/blog/netlify-successfully-mitigates-cve-2023-44487, https://www.nginx.com/blog/http-2-rapid-reset-attack-impacting-f5-nginx-products, https://www.openwall.com/lists/oss-security/2023/10/10/6, https://www.phoronix.com/news/HTTP2-Rapid-Reset-Attack, https://www.theregister.com/2023/10/10/http2_rapid_reset_zeroday, https://www.vicarius.io/vsociety/posts/rapid-reset-cve-2023-44487-dos-in-http2-understanding-the-root-cause, https://my.f5.com/manage/s/article/K000137106, https://netty.io/news/2023/10/10/4-1-100-Final.html, https://news.ycombinator.com/item?id=37830987, https://news.ycombinator.com/item?id=37830998, https://news.ycombinator.com/item?id=37831062, https://news.ycombinator.com/item?id=37837043, https://openssf.org/blog/2023/10/10/http-2-rapid-reset-vulnerability-highlights-need-for-rapid-response, https://seanmonstar.com/post/730794151136935936/hyper-http2-rapid-reset-unaffected, https://security.gentoo.org/glsa/202311-09, https://security.netapp.com/advisory/ntap-20231016-0001, https://security.netapp.com/advisory/ntap-20240426-0007, https://security.netapp.com/advisory/ntap-20240621-0006, https://security.netapp.com/advisory/ntap-20240621-0007, https://security.paloaltonetworks.com/CVE-2023-44487, https://tomcat.apache.org/security-10.html#Fixed_in_Apache_Tomcat_10.1.14, https://tomcat.apache.org/security-11.html#Fixed_in_Apache_Tomcat_11.0.0-M12, https://tomcat.apache.org/security-8.html#Fixed_in_Apache_Tomcat_8.5.94, https://tomcat.apache.org/security-9.html#Fixed_in_Apache_Tomcat_9.0.81, https://edg.io/lp/blog/resets-leaks-ddos-and-the-tale-of-a-hidden-cve, https://forums.swift.org/t/swift-nio-http2-security-update-cve-2023-44487-http-2-dos/67764, https://gist.github.com/adulau/7c2bfb8e9cdbe4b35a5e131c66a0c088, https://github.com/Kong/kong/discussions/11741, https://github.com/advisories/GHSA-qppj-fm5r-hxr3, https://github.com/advisories/GHSA-vx74-f528-fxqg, https://github.com/advisories/GHSA-xpw8-rcwv-8f8p, https://github.com/apache/httpd/blob/afcdbeebbff4b0c50ea26cdd16e178c0d1f24152/modules/http2/h2_mplx.c#L1101-L1113, https://github.com/apache/tomcat/tree/main/java/org/apache/coyote/http2, https://github.com/apple/swift-nio-http2, https://github.com/arkrwn/PoC/tree/main/CVE-2023-44487, https://github.com/bcdannyboy/CVE-2023-44487, https://github.com/caddyserver/caddy/releases/tag/v2.7.5, https://github.com/dotnet/core/blob/e4613450ea0da7fd2fc6b61dfb2c1c1dec1ce9ec/release-notes/6.0/6.0.23/6.0.23.md?plain=1#L73, https://github.com/grpc/grpc-go/releases, https://github.com/grpc/grpc/releases/tag/v1.59.2, https://github.com/icing/mod_h2/blob/0a864782af0a942aa2ad4ed960a6b32cd35bcf0a/mod_http2/README.md?plain=1#L239-L244, https://akka.io/security/akka-http-cve-2023-44487.html, https://arstechnica.com/security/2023/10/how-ddosers-used-the-http-2-protocol-to-deliver-attacks-of-unprecedented-size, https://aws.amazon.com/security/security-bulletins/AWS-2023-011, https://blog.cloudflare.com/technical-breakdown-http2-rapid-reset-ddos-attack, https://blog.cloudflare.com/zero-day-rapid-reset-http2-record-breaking-ddos-attack, https://blog.litespeedtech.com/2023/10/11/rapid-reset-http-2-vulnerablilty, https://blog.qualys.com/vulnerabilities-threat-research/2023/10/10/cve-2023-44487-http-2-rapid-reset-attack, https://blog.vespa.ai/cve-2023-44487, https://bugzilla.proxmox.com/show_bug.cgi?id=4988, https://bugzilla.redhat.com/show_bug.cgi?id=2242803, https://bugzilla.suse.com/show_bug.cgi?id=1216123, https://cgit.freebsd.org/ports/commit/?id=c64c329c2c1752f46b73e3e6ce9f4329be6629f9, https://chaos.social/@icing/111210915918780532, https://cloud.google.com/blog/products/identity-security/google-cloud-mitigated-largest-ddos-attack-peaking-above-398-million-rps, https://cloud.google.com/blog/products/identity-security/how-it-works-the-novel-http2-rapid-reset-ddos-attack, https://community.traefik.io/t/is-traefik-vulnerable-to-cve-2023-44487/20125, https://discuss.hashicorp.com/t/hcsec-2023-32-vault-consul-and-boundary-affected-by-http-2-rapid-reset-denial-of-service-vulnerability-cve-2023-44487/59715, https://lists.debian.org/debian-lts-announce/2023/11/msg00012.html, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/2MBEPPC36UBVOZZNAXFHKLFGSLCMN5LI, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/3N4NJ7FR4X4FPZUGNTQAPSTVB2HB2Y4A, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/BFQD3KUEMFBHPAPBGLWQC34L4OWL5HAZ, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/CLB4TW7KALB3EEQWNWCN7OUIWWVWWCG2, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/E72T67UPDRXHIDLO3OROR25YAMN4GGW5, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/FNA62Q767CFAFHBCDKYNPBMZWB7TWYVU, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/HT7T2R4MQKLIF4ODV4BDLPARWFPCJ5CZ, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/JIZSEFC3YKCGABA2BZW6ZJRMDZJMB7PJ, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/JMEXY22BFG5Q64HQCM5CK2Q7KDKVV4TY, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/KSEGD2IWKNUO3DWY4KQGUQM5BISRWHQE, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/LKYHSZQFDNR7RSA7LHVLLIAQMVYCUGBG, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/LNMZJCDHGLJJLXO4OXWJMTVQRNWOC7UL, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/VHUHTSXLXGXS7JYKBXTA3VINUPHTNGVU, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/VSRDIV77HNKUSM7SJC5BKE5JSHLHU2NK, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/WE2I52RHNNU42PX6NZ2RBUHSFFJ2LVZX, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/WLPRQ5TWUQQXYWBJM7ECYDAIL2YVKIUH, https://github.com/micrictor/http2-rst-stream, https://github.com/nghttp2/nghttp2/releases/tag/v1.57.0, https://github.com/oqtane/oqtane.framework/discussions/3367, https://go.dev/cl/534215, https://go.dev/cl/534235, https://go.dev/issue/63417, https://groups.google.com/g/golang-announce/c/iNNxDTCjZvo, https://groups.google.com/g/golang-announce/c/iNNxDTCjZvo/m/UDd7VKQuAAAJ, https://istio.io/latest/news/security/istio-security-2023-004, https://linkerd.io/2023/10/12/linkerd-cve-2023-44487, https://lists.apache.org/thread/5py8h42mxfsn8l1wy6o41xwhsjlsd87q, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://lists.debian.org/debian-lts-announce/2023/10/msg00023.html, https://lists.debian.org/debian-lts-announce/2023/10/msg00024.html, https://lists.debian.org/debian-lts-announce/2023/10/msg00045.html, https://lists.debian.org/debian-lts-announce/2023/10/msg00047.html, https://lists.debian.org/debian-lts-announce/2023/11/msg00001.html, http://www.openwall.com/lists/oss-security/2023/10/10/6, http://www.openwall.com/lists/oss-security/2023/10/10/7, http://www.openwall.com/lists/oss-security/2023/10/13/4, http://www.openwall.com/lists/oss-security/2023/10/13/9, http://www.openwall.com/lists/oss-security/2023/10/18/4, http://www.openwall.com/lists/oss-security/2023/10/18/8, http://www.openwall.com/lists/oss-security/2023/10/19/6, http://www.openwall.com/lists/oss-security/2023/10/20/8</t>
         </is>
       </c>
     </row>
@@ -1888,42 +1888,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GHSA-rq2w-37h9-vg94</t>
+          <t>GHSA-r6j3-px5g-cq3x</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Apache Tomcat improperly escapes input from JsonErrorReportValve</t>
+          <t>Apache Tomcat Improper Input Validation vulnerability</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8.5.83, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 10.1.0, 10.1.1, 10.1.0, 10.1.1, 8.5.83, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68</t>
+          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.5.84, 9.0.69, 10.1.2, 10.1.2, 8.5.84, 9.0.69</t>
+          <t>11.0.0-M12, 10.1.14, 9.0.81, 8.5.94, 11.0.0-M12, 10.1.14, 9.0.81, 8.5.94</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CWE-116, CWE-74</t>
+          <t>CWE-20</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>BIT-tomcat-2022-45143, CVE-2022-45143</t>
+          <t>BIT-tomcat-2023-45648, CVE-2023-45648</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-45143, https://github.com/apache/tomcat/commit/0cab3a56bd89f70e7481bb0d68395dc7e130dbbf, https://github.com/apache/tomcat/commit/6a0ac6a438cbbb66b6e9c5223842f53bf0cb50aa, https://github.com/apache/tomcat/commit/b336f4e58893ea35114f1e4a415657f723b1298e, https://github.com/apache/tomcat, https://lists.apache.org/thread/yqkd183xrw3wqvnpcg3osbcryq85fkzj, https://security.gentoo.org/glsa/202305-37</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-45648, https://github.com/apache/tomcat/commit/59583245639d8c42ae0009f4a4a70464d3ea70a0, https://github.com/apache/tomcat/commit/8ecff306507be8e4fd3adee1ae5de1ea6661a8f4, https://github.com/apache/tomcat/commit/c83fe47725f7ae9ae213568d9039171124fb7ec6, https://github.com/apache/tomcat/commit/eb5c094e5560764cda436362254997511a3ca1f6, https://github.com/apache/tomcat, https://lists.apache.org/thread/2pv8yz1pyp088tsxfb7ogltk9msk0jdp, https://lists.debian.org/debian-lts-announce/2023/10/msg00020.html, https://security.netapp.com/advisory/ntap-20231103-0007, https://www.debian.org/security/2023/dsa-5521, https://www.debian.org/security/2023/dsa-5522, http://www.openwall.com/lists/oss-security/2023/10/10/10</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GHSA-wm9w-rjj3-j356</t>
+          <t>GHSA-rq2w-37h9-vg94</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1955,39 +1955,39 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Apache Tomcat - Denial of Service</t>
+          <t>Apache Tomcat improperly escapes input from JsonErrorReportValve</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M17, 11.0.0-M18, 11.0.0-M19, 11.0.0-M20, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.19, 10.1.2, 10.1.20, 10.1.23, 10.1.24, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 9.0.86, 9.0.87, 9.0.88, 9.0.89, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M17, 11.0.0-M18, 11.0.0-M19, 11.0.0-M20, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.19, 10.1.2, 10.1.20, 10.1.23, 10.1.24, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 9.0.86, 9.0.87, 9.0.88, 9.0.89</t>
+          <t>8.5.83, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 10.1.0, 10.1.1, 10.1.0, 10.1.1, 8.5.83, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.0.0-M21, 10.1.25, 9.0.90, 11.0.0-M21, 10.1.25, 9.0.90</t>
+          <t>8.5.84, 9.0.69, 10.1.2, 10.1.2, 8.5.84, 9.0.69</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>CWE-400, CWE-755</t>
+          <t>CWE-116, CWE-74</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>CVE-2024-34750</t>
+          <t>BIT-tomcat-2022-45143, CVE-2022-45143</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-34750, https://github.com/apache/tomcat/commit/2344a4c0d03e307ba6b8ab6dc8b894cc8bac63f2, https://github.com/apache/tomcat/commit/2afae300c9ac9c0e516e2e9de580847d925365c3, https://github.com/apache/tomcat/commit/9fec9a82887853402833a80b584e3762c7423f5f, https://github.com/apache/tomcat, https://lists.apache.org/thread/4kqf0bc9gxymjc2x7v3p7dvplnl77y8l, https://tomcat.apache.org/security-10.html, https://tomcat.apache.org/security-11.html, https://tomcat.apache.org/security-9.html</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-45143, https://github.com/apache/tomcat/commit/0cab3a56bd89f70e7481bb0d68395dc7e130dbbf, https://github.com/apache/tomcat/commit/6a0ac6a438cbbb66b6e9c5223842f53bf0cb50aa, https://github.com/apache/tomcat/commit/b336f4e58893ea35114f1e4a415657f723b1298e, https://github.com/apache/tomcat, https://lists.apache.org/thread/yqkd183xrw3wqvnpcg3osbcryq85fkzj, https://security.gentoo.org/glsa/202305-37</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>org.apache.tomcat.embed:tomcat-embed-websocket</t>
+          <t>org.apache.tomcat.embed:tomcat-embed-core</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2002,54 +2002,54 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GHSA-v682-8vv8-vpwr</t>
+          <t>GHSA-wm9w-rjj3-j356</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Denial of Service via incomplete cleanup vulnerability in Apache Tomcat</t>
+          <t>Apache Tomcat - Denial of Service</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 8.5.94, 8.5.95, 8.5.96, 8.5.97, 8.5.98, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 8.5.94, 8.5.95, 8.5.96, 8.5.97, 8.5.98</t>
+          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M17, 11.0.0-M18, 11.0.0-M19, 11.0.0-M20, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.19, 10.1.2, 10.1.20, 10.1.23, 10.1.24, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 9.0.86, 9.0.87, 9.0.88, 9.0.89, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M17, 11.0.0-M18, 11.0.0-M19, 11.0.0-M20, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.19, 10.1.2, 10.1.20, 10.1.23, 10.1.24, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 9.0.86, 9.0.87, 9.0.88, 9.0.89</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11.0.0-M17, 10.1.19, 9.0.86, 8.5.99, 11.0.0-M17, 10.1.19, 9.0.86, 8.5.99</t>
+          <t>11.0.0-M21, 10.1.25, 9.0.90, 11.0.0-M21, 10.1.25, 9.0.90</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>CWE-459</t>
+          <t>CWE-400, CWE-755</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>BIT-tomcat-2024-23672, CVE-2024-23672</t>
+          <t>CVE-2024-34750</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-23672, https://github.com/apache/tomcat/commit/0052b374684b613b0c849899b325ebe334ac6501, https://github.com/apache/tomcat/commit/3631adb1342d8bbd8598802a12b63ad02c37d591, https://github.com/apache/tomcat/commit/52d6650e062d880704898d7d8c1b2b7a3efe8068, https://github.com/apache/tomcat/commit/b0e3b1bd78de270d53e319d7cb79eb282aa53cb9, https://github.com/apache/tomcat, https://lists.apache.org/thread/cmpswfx6tj4s7x0nxxosvfqs11lvdx2f, https://lists.debian.org/debian-lts-announce/2024/04/msg00001.html, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/3UWIS5MMGYDZBLJYT674ZI5AWFHDZ46B, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/736G4GPZWS2DSQO5WKXO3G6OMZKFEK55, https://security.netapp.com/advisory/ntap-20240402-0002, http://www.openwall.com/lists/oss-security/2024/03/13/4</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-34750, https://github.com/apache/tomcat/commit/2344a4c0d03e307ba6b8ab6dc8b894cc8bac63f2, https://github.com/apache/tomcat/commit/2afae300c9ac9c0e516e2e9de580847d925365c3, https://github.com/apache/tomcat/commit/9fec9a82887853402833a80b584e3762c7423f5f, https://github.com/apache/tomcat, https://lists.apache.org/thread/4kqf0bc9gxymjc2x7v3p7dvplnl77y8l, https://tomcat.apache.org/security-10.html, https://tomcat.apache.org/security-11.html, https://tomcat.apache.org/security-9.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>org.springframework.boot:spring-boot-autoconfigure</t>
+          <t>org.apache.tomcat.embed:tomcat-embed-websocket</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.6.3</t>
+          <t>9.0.56</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2059,49 +2059,49 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GHSA-xf96-w227-r7c4</t>
+          <t>GHSA-v682-8vv8-vpwr</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spring Boot Welcome Page Denial of Service</t>
+          <t>Denial of Service via incomplete cleanup vulnerability in Apache Tomcat</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3.0.0, 3.0.1, 3.0.2, 3.0.3, 3.0.4, 3.0.5, 3.0.6, 2.7.0, 2.7.1, 2.7.10, 2.7.11, 2.7.2, 2.7.3, 2.7.4, 2.7.5, 2.7.6, 2.7.7, 2.7.8, 2.7.9, 2.6.0, 2.6.1, 2.6.10, 2.6.11, 2.6.12, 2.6.13, 2.6.14, 2.6.2, 2.6.3, 2.6.4, 2.6.5, 2.6.6, 2.6.7, 2.6.8, 2.6.9, 1.0.0.RELEASE, 1.0.1.RELEASE, 1.0.2.RELEASE, 1.1.0.RELEASE, 1.1.1.RELEASE, 1.1.10.RELEASE, 1.1.11.RELEASE, 1.1.12.RELEASE, 1.1.2.RELEASE, 1.1.3.RELEASE, 1.1.4.RELEASE, 1.1.5.RELEASE, 1.1.6.RELEASE, 1.1.7.RELEASE, 1.1.8.RELEASE, 1.1.9.RELEASE, 1.2.0.RELEASE, 1.2.1.RELEASE, 1.2.2.RELEASE, 1.2.3.RELEASE, 1.2.4.RELEASE, 1.2.5.RELEASE, 1.2.6.RELEASE, 1.2.7.RELEASE, 1.2.8.RELEASE, 1.3.0.RELEASE, 1.3.1.RELEASE, 1.3.2.RELEASE, 1.3.3.RELEASE, 1.3.4.RELEASE, 1.3.5.RELEASE, 1.3.6.RELEASE, 1.3.7.RELEASE, 1.3.8.RELEASE, 1.4.0.RELEASE, 1.4.1.RELEASE, 1.4.2.RELEASE, 1.4.3.RELEASE, 1.4.4.RELEASE, 1.4.5.RELEASE, 1.4.6.RELEASE, 1.4.7.RELEASE, 1.5.0.RELEASE, 1.5.1.RELEASE, 1.5.10.RELEASE, 1.5.11.RELEASE, 1.5.12.RELEASE, 1.5.13.RELEASE, 1.5.14.RELEASE, 1.5.15.RELEASE, 1.5.16.RELEASE, 1.5.17.RELEASE, 1.5.18.RELEASE, 1.5.19.RELEASE, 1.5.2.RELEASE, 1.5.20.RELEASE, 1.5.21.RELEASE, 1.5.22.RELEASE, 1.5.3.RELEASE, 1.5.4.RELEASE, 1.5.5.RELEASE, 1.5.6.RELEASE, 1.5.7.RELEASE, 1.5.8.RELEASE, 1.5.9.RELEASE, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.12, 2.5.13, 2.5.14, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9</t>
+          <t>11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 8.5.94, 8.5.95, 8.5.96, 8.5.97, 8.5.98, 11.0.0-M1, 11.0.0-M10, 11.0.0-M11, 11.0.0-M12, 11.0.0-M13, 11.0.0-M14, 11.0.0-M15, 11.0.0-M16, 11.0.0-M3, 11.0.0-M4, 11.0.0-M5, 11.0.0-M6, 11.0.0-M7, 11.0.0-M9, 10.1.0, 10.1.0-M1, 10.1.0-M10, 10.1.0-M11, 10.1.0-M12, 10.1.0-M14, 10.1.0-M15, 10.1.0-M16, 10.1.0-M17, 10.1.0-M2, 10.1.0-M4, 10.1.0-M5, 10.1.0-M6, 10.1.0-M7, 10.1.0-M8, 10.1.1, 10.1.10, 10.1.11, 10.1.12, 10.1.13, 10.1.14, 10.1.15, 10.1.16, 10.1.17, 10.1.18, 10.1.2, 10.1.4, 10.1.5, 10.1.6, 10.1.7, 10.1.8, 10.1.9, 9.0.0.M1, 9.0.0.M10, 9.0.0.M11, 9.0.0.M13, 9.0.0.M15, 9.0.0.M17, 9.0.0.M18, 9.0.0.M19, 9.0.0.M20, 9.0.0.M21, 9.0.0.M22, 9.0.0.M25, 9.0.0.M26, 9.0.0.M27, 9.0.0.M3, 9.0.0.M4, 9.0.0.M6, 9.0.0.M8, 9.0.0.M9, 9.0.1, 9.0.10, 9.0.11, 9.0.12, 9.0.13, 9.0.14, 9.0.16, 9.0.17, 9.0.19, 9.0.2, 9.0.20, 9.0.21, 9.0.22, 9.0.24, 9.0.26, 9.0.27, 9.0.29, 9.0.30, 9.0.31, 9.0.33, 9.0.34, 9.0.35, 9.0.36, 9.0.37, 9.0.38, 9.0.39, 9.0.4, 9.0.40, 9.0.41, 9.0.43, 9.0.44, 9.0.45, 9.0.46, 9.0.48, 9.0.5, 9.0.50, 9.0.52, 9.0.53, 9.0.54, 9.0.55, 9.0.56, 9.0.58, 9.0.59, 9.0.6, 9.0.60, 9.0.62, 9.0.63, 9.0.64, 9.0.65, 9.0.67, 9.0.68, 9.0.69, 9.0.7, 9.0.70, 9.0.71, 9.0.72, 9.0.73, 9.0.74, 9.0.75, 9.0.76, 9.0.78, 9.0.79, 9.0.8, 9.0.80, 9.0.81, 9.0.82, 9.0.83, 9.0.84, 9.0.85, 8.5.0, 8.5.11, 8.5.12, 8.5.13, 8.5.14, 8.5.15, 8.5.16, 8.5.19, 8.5.2, 8.5.20, 8.5.21, 8.5.23, 8.5.24, 8.5.27, 8.5.28, 8.5.29, 8.5.3, 8.5.30, 8.5.31, 8.5.32, 8.5.33, 8.5.34, 8.5.35, 8.5.37, 8.5.38, 8.5.39, 8.5.4, 8.5.40, 8.5.41, 8.5.42, 8.5.43, 8.5.45, 8.5.46, 8.5.47, 8.5.49, 8.5.5, 8.5.50, 8.5.51, 8.5.53, 8.5.54, 8.5.55, 8.5.56, 8.5.57, 8.5.58, 8.5.59, 8.5.6, 8.5.60, 8.5.61, 8.5.63, 8.5.64, 8.5.65, 8.5.66, 8.5.68, 8.5.69, 8.5.70, 8.5.71, 8.5.72, 8.5.73, 8.5.75, 8.5.76, 8.5.77, 8.5.78, 8.5.79, 8.5.8, 8.5.81, 8.5.82, 8.5.83, 8.5.84, 8.5.85, 8.5.86, 8.5.87, 8.5.88, 8.5.89, 8.5.9, 8.5.90, 8.5.91, 8.5.92, 8.5.93, 8.5.94, 8.5.95, 8.5.96, 8.5.97, 8.5.98</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.0.7, 2.7.12, 2.6.15, 2.5.15</t>
+          <t>11.0.0-M17, 10.1.19, 9.0.86, 8.5.99, 11.0.0-M17, 10.1.19, 9.0.86, 8.5.99</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>CWE-400</t>
+          <t>CWE-459</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>CVE-2023-20883</t>
+          <t>BIT-tomcat-2024-23672, CVE-2024-23672</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-20883, https://github.com/spring-projects/spring-boot/issues/35552, https://github.com/spring-projects/spring-boot/commit/418dd1ba5bdad79b55a043000164bfcbda2acd78, https://github.com/spring-projects/spring-boot, https://github.com/spring-projects/spring-boot/releases/tag/v2.5.15, https://github.com/spring-projects/spring-boot/releases/tag/v2.6.15, https://github.com/spring-projects/spring-boot/releases/tag/v2.7.12, https://security.netapp.com/advisory/ntap-20230703-0008, https://spring.io/security/cve-2023-20883</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-23672, https://github.com/apache/tomcat/commit/0052b374684b613b0c849899b325ebe334ac6501, https://github.com/apache/tomcat/commit/3631adb1342d8bbd8598802a12b63ad02c37d591, https://github.com/apache/tomcat/commit/52d6650e062d880704898d7d8c1b2b7a3efe8068, https://github.com/apache/tomcat/commit/b0e3b1bd78de270d53e319d7cb79eb282aa53cb9, https://github.com/apache/tomcat, https://lists.apache.org/thread/cmpswfx6tj4s7x0nxxosvfqs11lvdx2f, https://lists.debian.org/debian-lts-announce/2024/04/msg00001.html, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/3UWIS5MMGYDZBLJYT674ZI5AWFHDZ46B, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/736G4GPZWS2DSQO5WKXO3G6OMZKFEK55, https://security.netapp.com/advisory/ntap-20240402-0002, http://www.openwall.com/lists/oss-security/2024/03/13/4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>org.springframework.boot:spring-boot-starter-web</t>
+          <t>org.springframework.boot:spring-boot-autoconfigure</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2116,54 +2116,54 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GHSA-36p3-wjmg-h94x</t>
+          <t>GHSA-xf96-w227-r7c4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Remote Code Execution in Spring Framework</t>
+          <t>Spring Boot Welcome Page Denial of Service</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0.0.RELEASE, 1.0.1.RELEASE, 1.0.2.RELEASE, 1.1.0.RELEASE, 1.1.1.RELEASE, 1.1.10.RELEASE, 1.1.11.RELEASE, 1.1.12.RELEASE, 1.1.2.RELEASE, 1.1.3.RELEASE, 1.1.4.RELEASE, 1.1.5.RELEASE, 1.1.6.RELEASE, 1.1.7.RELEASE, 1.1.8.RELEASE, 1.1.9.RELEASE, 1.2.0.RELEASE, 1.2.1.RELEASE, 1.2.2.RELEASE, 1.2.3.RELEASE, 1.2.4.RELEASE, 1.2.5.RELEASE, 1.2.6.RELEASE, 1.2.7.RELEASE, 1.2.8.RELEASE, 1.3.0.RELEASE, 1.3.1.RELEASE, 1.3.2.RELEASE, 1.3.3.RELEASE, 1.3.4.RELEASE, 1.3.5.RELEASE, 1.3.6.RELEASE, 1.3.7.RELEASE, 1.3.8.RELEASE, 1.4.0.RELEASE, 1.4.1.RELEASE, 1.4.2.RELEASE, 1.4.3.RELEASE, 1.4.4.RELEASE, 1.4.5.RELEASE, 1.4.6.RELEASE, 1.4.7.RELEASE, 1.5.0.RELEASE, 1.5.1.RELEASE, 1.5.10.RELEASE, 1.5.11.RELEASE, 1.5.12.RELEASE, 1.5.13.RELEASE, 1.5.14.RELEASE, 1.5.15.RELEASE, 1.5.16.RELEASE, 1.5.17.RELEASE, 1.5.18.RELEASE, 1.5.19.RELEASE, 1.5.2.RELEASE, 1.5.20.RELEASE, 1.5.21.RELEASE, 1.5.22.RELEASE, 1.5.3.RELEASE, 1.5.4.RELEASE, 1.5.5.RELEASE, 1.5.6.RELEASE, 1.5.7.RELEASE, 1.5.8.RELEASE, 1.5.9.RELEASE, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.6.5, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.6.5</t>
+          <t>3.0.0, 3.0.1, 3.0.2, 3.0.3, 3.0.4, 3.0.5, 3.0.6, 2.7.0, 2.7.1, 2.7.10, 2.7.11, 2.7.2, 2.7.3, 2.7.4, 2.7.5, 2.7.6, 2.7.7, 2.7.8, 2.7.9, 2.6.0, 2.6.1, 2.6.10, 2.6.11, 2.6.12, 2.6.13, 2.6.14, 2.6.2, 2.6.3, 2.6.4, 2.6.5, 2.6.6, 2.6.7, 2.6.8, 2.6.9, 1.0.0.RELEASE, 1.0.1.RELEASE, 1.0.2.RELEASE, 1.1.0.RELEASE, 1.1.1.RELEASE, 1.1.10.RELEASE, 1.1.11.RELEASE, 1.1.12.RELEASE, 1.1.2.RELEASE, 1.1.3.RELEASE, 1.1.4.RELEASE, 1.1.5.RELEASE, 1.1.6.RELEASE, 1.1.7.RELEASE, 1.1.8.RELEASE, 1.1.9.RELEASE, 1.2.0.RELEASE, 1.2.1.RELEASE, 1.2.2.RELEASE, 1.2.3.RELEASE, 1.2.4.RELEASE, 1.2.5.RELEASE, 1.2.6.RELEASE, 1.2.7.RELEASE, 1.2.8.RELEASE, 1.3.0.RELEASE, 1.3.1.RELEASE, 1.3.2.RELEASE, 1.3.3.RELEASE, 1.3.4.RELEASE, 1.3.5.RELEASE, 1.3.6.RELEASE, 1.3.7.RELEASE, 1.3.8.RELEASE, 1.4.0.RELEASE, 1.4.1.RELEASE, 1.4.2.RELEASE, 1.4.3.RELEASE, 1.4.4.RELEASE, 1.4.5.RELEASE, 1.4.6.RELEASE, 1.4.7.RELEASE, 1.5.0.RELEASE, 1.5.1.RELEASE, 1.5.10.RELEASE, 1.5.11.RELEASE, 1.5.12.RELEASE, 1.5.13.RELEASE, 1.5.14.RELEASE, 1.5.15.RELEASE, 1.5.16.RELEASE, 1.5.17.RELEASE, 1.5.18.RELEASE, 1.5.19.RELEASE, 1.5.2.RELEASE, 1.5.20.RELEASE, 1.5.21.RELEASE, 1.5.22.RELEASE, 1.5.3.RELEASE, 1.5.4.RELEASE, 1.5.5.RELEASE, 1.5.6.RELEASE, 1.5.7.RELEASE, 1.5.8.RELEASE, 1.5.9.RELEASE, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.12, 2.5.13, 2.5.14, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5.2.20.RELEASE, 5.3.18, 5.2.20.RELEASE, 5.3.18, 2.5.12, 2.6.6, 5.2.20.RELEASE, 5.3.18, 2.5.12, 2.6.6</t>
+          <t>3.0.7, 2.7.12, 2.6.15, 2.5.15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>CWE-74, CWE-94</t>
+          <t>CWE-400</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>CVE-2022-22965</t>
+          <t>CVE-2023-20883</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22965, https://github.com/spring-projects/spring-framework/commit/002546b3e4b8d791ea6acccb81eb3168f51abb15, https://cert-portal.siemens.com/productcert/pdf/ssa-254054.pdf, https://github.com/spring-projects/spring-boot/releases/tag/v2.5.12, https://github.com/spring-projects/spring-boot/releases/tag/v2.6.6, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/releases/tag/v5.2.20.RELEASE, https://github.com/spring-projects/spring-framework/releases/tag/v5.3.18, https://psirt.global.sonicwall.com/vuln-detail/SNWLID-2022-0005, https://spring.io/blog/2022/03/31/spring-framework-rce-early-announcement, https://tanzu.vmware.com/security/cve-2022-22965, https://tools.cisco.com/security/center/content/CiscoSecurityAdvisory/cisco-sa-java-spring-rce-Zx9GUc67, https://www.kb.cert.org/vuls/id/970766, https://www.oracle.com/security-alerts/cpuapr2022.html, https://www.oracle.com/security-alerts/cpujul2022.html, http://packetstormsecurity.com/files/166713/Spring4Shell-Code-Execution.html, http://packetstormsecurity.com/files/167011/Spring4Shell-Spring-Framework-Class-Property-Remote-Code-Execution.html</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-20883, https://github.com/spring-projects/spring-boot/issues/35552, https://github.com/spring-projects/spring-boot/commit/418dd1ba5bdad79b55a043000164bfcbda2acd78, https://github.com/spring-projects/spring-boot, https://github.com/spring-projects/spring-boot/releases/tag/v2.5.15, https://github.com/spring-projects/spring-boot/releases/tag/v2.6.15, https://github.com/spring-projects/spring-boot/releases/tag/v2.7.12, https://security.netapp.com/advisory/ntap-20230703-0008, https://spring.io/security/cve-2023-20883</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>org.springframework:spring-beans</t>
+          <t>org.springframework.boot:spring-boot-starter-web</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5.3.15</t>
+          <t>2.6.3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2230,49 +2230,49 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GHSA-hh26-6xwr-ggv7</t>
+          <t>GHSA-36p3-wjmg-h94x</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Denial of service in Spring Framework</t>
+          <t>Remote Code Execution in Spring Framework</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
+          <t>1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0.0.RELEASE, 1.0.1.RELEASE, 1.0.2.RELEASE, 1.1.0.RELEASE, 1.1.1.RELEASE, 1.1.10.RELEASE, 1.1.11.RELEASE, 1.1.12.RELEASE, 1.1.2.RELEASE, 1.1.3.RELEASE, 1.1.4.RELEASE, 1.1.5.RELEASE, 1.1.6.RELEASE, 1.1.7.RELEASE, 1.1.8.RELEASE, 1.1.9.RELEASE, 1.2.0.RELEASE, 1.2.1.RELEASE, 1.2.2.RELEASE, 1.2.3.RELEASE, 1.2.4.RELEASE, 1.2.5.RELEASE, 1.2.6.RELEASE, 1.2.7.RELEASE, 1.2.8.RELEASE, 1.3.0.RELEASE, 1.3.1.RELEASE, 1.3.2.RELEASE, 1.3.3.RELEASE, 1.3.4.RELEASE, 1.3.5.RELEASE, 1.3.6.RELEASE, 1.3.7.RELEASE, 1.3.8.RELEASE, 1.4.0.RELEASE, 1.4.1.RELEASE, 1.4.2.RELEASE, 1.4.3.RELEASE, 1.4.4.RELEASE, 1.4.5.RELEASE, 1.4.6.RELEASE, 1.4.7.RELEASE, 1.5.0.RELEASE, 1.5.1.RELEASE, 1.5.10.RELEASE, 1.5.11.RELEASE, 1.5.12.RELEASE, 1.5.13.RELEASE, 1.5.14.RELEASE, 1.5.15.RELEASE, 1.5.16.RELEASE, 1.5.17.RELEASE, 1.5.18.RELEASE, 1.5.19.RELEASE, 1.5.2.RELEASE, 1.5.20.RELEASE, 1.5.21.RELEASE, 1.5.22.RELEASE, 1.5.3.RELEASE, 1.5.4.RELEASE, 1.5.5.RELEASE, 1.5.6.RELEASE, 1.5.7.RELEASE, 1.5.8.RELEASE, 1.5.9.RELEASE, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.6.5, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.6.5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.2.22.RELEASE, 5.3.20</t>
+          <t>5.2.20.RELEASE, 5.3.18, 5.2.20.RELEASE, 5.3.18, 2.5.12, 2.6.6, 5.2.20.RELEASE, 5.3.18, 2.5.12, 2.6.6</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>CWE-770</t>
+          <t>CWE-74, CWE-94</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>CVE-2022-22970</t>
+          <t>CVE-2022-22965</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22970, https://github.com/spring-projects/spring-framework/commit/50177b1ad3485bd44239b1756f6c14607476fcf2, https://github.com/spring-projects/spring-framework/commit/83186b689f11f5e6efe7ccc08fdeb92f66fcd583, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20220616-0006, https://tanzu.vmware.com/security/cve-2022-22970, https://www.oracle.com/security-alerts/cpujul2022.html</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22965, https://github.com/spring-projects/spring-framework/commit/002546b3e4b8d791ea6acccb81eb3168f51abb15, https://cert-portal.siemens.com/productcert/pdf/ssa-254054.pdf, https://github.com/spring-projects/spring-boot/releases/tag/v2.5.12, https://github.com/spring-projects/spring-boot/releases/tag/v2.6.6, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/releases/tag/v5.2.20.RELEASE, https://github.com/spring-projects/spring-framework/releases/tag/v5.3.18, https://psirt.global.sonicwall.com/vuln-detail/SNWLID-2022-0005, https://spring.io/blog/2022/03/31/spring-framework-rce-early-announcement, https://tanzu.vmware.com/security/cve-2022-22965, https://tools.cisco.com/security/center/content/CiscoSecurityAdvisory/cisco-sa-java-spring-rce-Zx9GUc67, https://www.kb.cert.org/vuls/id/970766, https://www.oracle.com/security-alerts/cpuapr2022.html, https://www.oracle.com/security-alerts/cpujul2022.html, http://packetstormsecurity.com/files/166713/Spring4Shell-Code-Execution.html, http://packetstormsecurity.com/files/167011/Spring4Shell-Spring-Framework-Class-Property-Remote-Code-Execution.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>org.springframework:spring-context</t>
+          <t>org.springframework:spring-beans</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2287,42 +2287,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GHSA-4gc7-5j7h-4qph</t>
+          <t>GHSA-hh26-6xwr-ggv7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spring Framework DataBinder Case Sensitive Match Exception</t>
+          <t>Denial of service in Spring Framework</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.13, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9</t>
+          <t>1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6.1.14</t>
+          <t>5.2.22.RELEASE, 5.3.20</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>CWE-178</t>
+          <t>CWE-770</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CVE-2024-38820</t>
+          <t>CVE-2022-22970</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38820, https://github.com/spring-projects/spring-framework/commit/23656aebc6c7d0f9faff1080981eb4d55eff296c, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/commits/v6.2.0-RC2, https://security.netapp.com/advisory/ntap-20241129-0003, https://spring.io/security/cve-2024-38820</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22970, https://github.com/spring-projects/spring-framework/commit/50177b1ad3485bd44239b1756f6c14607476fcf2, https://github.com/spring-projects/spring-framework/commit/83186b689f11f5e6efe7ccc08fdeb92f66fcd583, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20220616-0006, https://tanzu.vmware.com/security/cve-2022-22970, https://www.oracle.com/security-alerts/cpujul2022.html</t>
         </is>
       </c>
     </row>
@@ -2344,27 +2344,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GHSA-g5mm-vmx4-3rg7</t>
+          <t>GHSA-4gc7-5j7h-4qph</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Improper handling of case sensitivity in Spring Framework</t>
+          <t>Spring Framework DataBinder Case Sensitive Match Exception</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
+          <t>1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.13, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5.3.19, 5.2.21.RELEASE</t>
+          <t>6.1.14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2374,19 +2374,19 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>CVE-2022-22968</t>
+          <t>CVE-2024-38820</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22968, https://github.com/spring-projects/spring-framework/commit/833e750175349ab4fd502109a8b41af77e25cdea, https://github.com/spring-projects/spring-framework/commit/a7cf19cec5ebd270f97a194d749e2d5701ad2ab7, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20220602-0004, https://tanzu.vmware.com/security/cve-2022-22968, https://www.oracle.com/security-alerts/cpujul2022.html</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38820, https://github.com/spring-projects/spring-framework/commit/23656aebc6c7d0f9faff1080981eb4d55eff296c, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/commits/v6.2.0-RC2, https://security.netapp.com/advisory/ntap-20241129-0003, https://spring.io/security/cve-2024-38820</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>org.springframework:spring-expression</t>
+          <t>org.springframework:spring-context</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2401,42 +2401,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GHSA-558x-2xjg-6232</t>
+          <t>GHSA-g5mm-vmx4-3rg7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Allocation of Resources Without Limits or Throttling in Spring Framework</t>
+          <t>Improper handling of case sensitivity in Spring Framework</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
+          <t>5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5.3.17, 5.2.20.RELEASE</t>
+          <t>5.3.19, 5.2.21.RELEASE</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>CWE-770</t>
+          <t>CWE-178</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>CVE-2022-22950</t>
+          <t>CVE-2022-22968</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22950, https://github.com/spring-projects/spring-framework/issues/28145, https://github.com/spring-projects/spring-framework/issues/28257, https://github.com/spring-projects/spring-framework/commit/83ac65915871067c39a4fb255e0d484c785c0c11, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/releases/tag/v5.2.20.RELEASE, https://github.com/spring-projects/spring-framework/releases/tag/v5.3.17, https://tanzu.vmware.com/security/cve-2022-22950</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22968, https://github.com/spring-projects/spring-framework/commit/833e750175349ab4fd502109a8b41af77e25cdea, https://github.com/spring-projects/spring-framework/commit/a7cf19cec5ebd270f97a194d749e2d5701ad2ab7, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20220602-0004, https://tanzu.vmware.com/security/cve-2022-22968, https://www.oracle.com/security-alerts/cpujul2022.html</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GHSA-564r-hj7v-mcr5</t>
+          <t>GHSA-558x-2xjg-6232</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2468,32 +2468,32 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spring Framework vulnerable to denial of service via specially crafted SpEL expression</t>
+          <t>Allocation of Resources Without Limits or Throttling in Spring Framework</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6.0.0, 6.0.1, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
+          <t>5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>6.0.7, 5.3.26, 5.2.23.RELEASE</t>
+          <t>5.3.17, 5.2.20.RELEASE</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>CWE-400, CWE-917</t>
+          <t>CWE-770</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CVE-2023-20861</t>
+          <t>CVE-2022-22950</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-20861, https://github.com/spring-projects/spring-framework/commit/430fc25acad2e85cbdddcd52b64481691f03ebd1, https://github.com/spring-projects/spring-framework/commit/52c93b1c4b24d70de233a958e60e7c5822bd274f, https://github.com/spring-projects/spring-framework/commit/935c29e3ddba5b19951e54f6685c70ed45d9cbe5, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20230420-0007, https://spring.io/security/cve-2023-20861</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22950, https://github.com/spring-projects/spring-framework/issues/28145, https://github.com/spring-projects/spring-framework/issues/28257, https://github.com/spring-projects/spring-framework/commit/83ac65915871067c39a4fb255e0d484c785c0c11, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/releases/tag/v5.2.20.RELEASE, https://github.com/spring-projects/spring-framework/releases/tag/v5.3.17, https://tanzu.vmware.com/security/cve-2022-22950</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GHSA-9cmq-m9j5-mvww</t>
+          <t>GHSA-564r-hj7v-mcr5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2525,32 +2525,32 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spring Framework vulnerable to Denial of Service</t>
+          <t>Spring Framework vulnerable to denial of service via specially crafted SpEL expression</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
+          <t>6.0.0, 6.0.1, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.3.39</t>
+          <t>6.0.7, 5.3.26, 5.2.23.RELEASE</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>CWE-770</t>
+          <t>CWE-400, CWE-917</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>CVE-2024-38808</t>
+          <t>CVE-2023-20861</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38808, https://github.com/spring-projects/spring-framework/commit/26f2dad388499faecf99e75b8856788e95d8d658, https://github.com/spring-projects/spring-framework/commit/f44d13cb7816e586b86c02421af4f5498391111c, https://github.com/spring-projects/spring-framework, https://spring.io/security/cve-2024-38808</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-20861, https://github.com/spring-projects/spring-framework/commit/430fc25acad2e85cbdddcd52b64481691f03ebd1, https://github.com/spring-projects/spring-framework/commit/52c93b1c4b24d70de233a958e60e7c5822bd274f, https://github.com/spring-projects/spring-framework/commit/935c29e3ddba5b19951e54f6685c70ed45d9cbe5, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20230420-0007, https://spring.io/security/cve-2023-20861</t>
         </is>
       </c>
     </row>
@@ -2572,49 +2572,49 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>GHSA-wxqc-pxw9-g2p8</t>
+          <t>GHSA-9cmq-m9j5-mvww</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spring Framework vulnerable to denial of service</t>
+          <t>Spring Framework vulnerable to Denial of Service</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.0.0, 6.0.1, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
+          <t>3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6.0.8, 5.3.27, 5.2.24.RELEASE</t>
+          <t>5.3.39</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>CWE-400, CWE-770, CWE-917</t>
+          <t>CWE-770</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>CVE-2023-20863</t>
+          <t>CVE-2024-38808</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-20863, https://github.com/spring-projects/spring-framework/commit/965a6392757d20f9db19241126fcc719a51eac15, https://github.com/spring-projects/spring-framework/commit/b73f5fcac22555f844cf27a7eeb876cb9d7f7f7e, https://github.com/spring-projects/spring-framework/commit/ebc82654282bda547fbc20a9749ab1bda886a46f, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20240524-0015, https://spring.io/security/cve-2023-20863</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38808, https://github.com/spring-projects/spring-framework/commit/26f2dad388499faecf99e75b8856788e95d8d658, https://github.com/spring-projects/spring-framework/commit/f44d13cb7816e586b86c02421af4f5498391111c, https://github.com/spring-projects/spring-framework, https://spring.io/security/cve-2024-38808</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>org.springframework:spring-web</t>
+          <t>org.springframework:spring-expression</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2629,42 +2629,42 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GHSA-2rmj-mq67-h97g</t>
+          <t>GHSA-wxqc-pxw9-g2p8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spring Framework DoS via conditional HTTP request</t>
+          <t>Spring Framework vulnerable to denial of service</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9</t>
+          <t>6.0.0, 6.0.1, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5.3.38, 6.0.23, 6.1.12</t>
+          <t>6.0.8, 5.3.27, 5.2.24.RELEASE</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>CWE-1333, CWE-400</t>
+          <t>CWE-400, CWE-770, CWE-917</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>CVE-2024-38809</t>
+          <t>CVE-2023-20863</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38809, https://github.com/spring-projects/spring-framework/issues/33372, https://github.com/spring-projects/spring-framework/commit/582bfccbb72e5c8959a0b472d1dc7d03a20520f3, https://github.com/spring-projects/spring-framework/commit/8d16a50907c11f7e6b407d878a26e84eba08a533, https://github.com/spring-projects/spring-framework/commit/bb17ad8314b81850a939fd265fb53b3361705e85, https://github.com/spring-projects/spring-framework, https://spring.io/security/cve-2024-38809</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2023-20863, https://github.com/spring-projects/spring-framework/commit/965a6392757d20f9db19241126fcc719a51eac15, https://github.com/spring-projects/spring-framework/commit/b73f5fcac22555f844cf27a7eeb876cb9d7f7f7e, https://github.com/spring-projects/spring-framework/commit/ebc82654282bda547fbc20a9749ab1bda886a46f, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20240524-0015, https://spring.io/security/cve-2023-20863</t>
         </is>
       </c>
     </row>
@@ -2686,42 +2686,42 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GHSA-2wrp-6fg6-hmc5</t>
+          <t>GHSA-2rmj-mq67-h97g</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spring Framework URL Parsing with Host Validation</t>
+          <t>Spring Framework DoS via conditional HTTP request</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.2, 6.1.3, 6.1.4, 6.1.5</t>
+          <t>1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>5.3.34, 6.0.19, 6.1.6</t>
+          <t>5.3.38, 6.0.23, 6.1.12</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>CWE-601</t>
+          <t>CWE-1333, CWE-400</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CVE-2024-22262</t>
+          <t>CVE-2024-38809</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-22262, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/blob/main/spring-web/src/main/java/org/springframework/web/util/UriComponentsBuilder.java, https://security.netapp.com/advisory/ntap-20240524-0003, https://spring.io/security/cve-2024-22262</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38809, https://github.com/spring-projects/spring-framework/issues/33372, https://github.com/spring-projects/spring-framework/commit/582bfccbb72e5c8959a0b472d1dc7d03a20520f3, https://github.com/spring-projects/spring-framework/commit/8d16a50907c11f7e6b407d878a26e84eba08a533, https://github.com/spring-projects/spring-framework/commit/bb17ad8314b81850a939fd265fb53b3361705e85, https://github.com/spring-projects/spring-framework, https://spring.io/security/cve-2024-38809</t>
         </is>
       </c>
     </row>
@@ -2743,42 +2743,42 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GHSA-4wrc-f8pq-fpqp</t>
+          <t>GHSA-2wrp-6fg6-hmc5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pivotal Spring Framework contains unsafe Java deserialization methods</t>
+          <t>Spring Framework URL Parsing with Host Validation</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
+          <t>1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.2, 6.1.3, 6.1.4, 6.1.5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6.0.0</t>
+          <t>5.3.34, 6.0.19, 6.1.6</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>CWE-502</t>
+          <t>CWE-601</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>CVE-2016-1000027</t>
+          <t>CVE-2024-22262</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2016-1000027, https://github.com/spring-projects/spring-framework/issues/21680, https://github.com/spring-projects/spring-framework/issues/24434, https://github.com/spring-projects/spring-framework/issues/24434#issuecomment-1231625331, https://github.com/spring-projects/spring-framework/issues/24434#issuecomment-579669626, https://github.com/spring-projects/spring-framework/issues/24434#issuecomment-582313417, https://github.com/spring-projects/spring-framework/issues/24434#issuecomment-744519525, https://github.com/spring-projects/spring-framework/commit/2b051b8b321768a4cfef83077db65c6328ffd60f, https://github.com/spring-projects/spring-framework/commit/5cbe90b2cd91b866a5a9586e460f311860e11cfa, https://www.tenable.com/security/research/tra-2016-20, https://support.contrastsecurity.com/hc/en-us/articles/4402400830612-Spring-web-Java-Deserialization-CVE-2016-1000027, https://spring.io/blog/2022/05/11/spring-framework-5-3-20-and-5-2-22-available-now, https://security.netapp.com/advisory/ntap-20230420-0009, https://security-tracker.debian.org/tracker/CVE-2016-1000027, https://jira.spring.io/browse/SPR-17143?redirect=false, https://github.com/spring-projects/spring-framework, https://bugzilla.redhat.com/show_bug.cgi?id=CVE-2016-1000027</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-22262, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/blob/main/spring-web/src/main/java/org/springframework/web/util/UriComponentsBuilder.java, https://security.netapp.com/advisory/ntap-20240524-0003, https://spring.io/security/cve-2024-22262</t>
         </is>
       </c>
     </row>
@@ -2800,42 +2800,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GHSA-ccgv-vj62-xf9h</t>
+          <t>GHSA-4wrc-f8pq-fpqp</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spring Web vulnerable to Open Redirect or Server Side Request Forgery</t>
+          <t>Pivotal Spring Framework contains unsafe Java deserialization methods</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6.1.0, 6.1.1, 6.1.2, 6.1.3, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
+          <t>1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6.1.4, 6.0.17, 5.3.32</t>
+          <t>6.0.0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>CWE-601</t>
+          <t>CWE-502</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>CVE-2024-22243</t>
+          <t>CVE-2016-1000027</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-22243, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/blob/main/spring-web/src/main/java/org/springframework/web/util/UriComponentsBuilder.java, https://security.netapp.com/advisory/ntap-20240524-0001, https://spring.io/security/cve-2024-22243, http://seclists.org/fulldisclosure/2024/Sep/24</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2016-1000027, https://github.com/spring-projects/spring-framework/issues/21680, https://github.com/spring-projects/spring-framework/issues/24434, https://github.com/spring-projects/spring-framework/issues/24434#issuecomment-1231625331, https://github.com/spring-projects/spring-framework/issues/24434#issuecomment-579669626, https://github.com/spring-projects/spring-framework/issues/24434#issuecomment-582313417, https://github.com/spring-projects/spring-framework/issues/24434#issuecomment-744519525, https://github.com/spring-projects/spring-framework/commit/2b051b8b321768a4cfef83077db65c6328ffd60f, https://github.com/spring-projects/spring-framework/commit/5cbe90b2cd91b866a5a9586e460f311860e11cfa, https://www.tenable.com/security/research/tra-2016-20, https://support.contrastsecurity.com/hc/en-us/articles/4402400830612-Spring-web-Java-Deserialization-CVE-2016-1000027, https://spring.io/blog/2022/05/11/spring-framework-5-3-20-and-5-2-22-available-now, https://security.netapp.com/advisory/ntap-20230420-0009, https://security-tracker.debian.org/tracker/CVE-2016-1000027, https://jira.spring.io/browse/SPR-17143?redirect=false, https://github.com/spring-projects/spring-framework, https://bugzilla.redhat.com/show_bug.cgi?id=CVE-2016-1000027</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GHSA-hgjh-9rj2-g67j</t>
+          <t>GHSA-ccgv-vj62-xf9h</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2867,17 +2867,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spring Framework URL Parsing with Host Validation Vulnerability</t>
+          <t>Spring Web vulnerable to Open Redirect or Server Side Request Forgery</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6.1.0, 6.1.1, 6.1.2, 6.1.3, 6.1.4, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
+          <t>6.1.0, 6.1.1, 6.1.2, 6.1.3, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>6.1.5, 6.0.18, 5.3.33</t>
+          <t>6.1.4, 6.0.17, 5.3.32</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2887,19 +2887,19 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>CVE-2024-22259</t>
+          <t>CVE-2024-22243</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-22259, https://github.com/spring-projects/spring-framework/commit/297cbae2990e1413537c55845a7e0ea0ffd9f9bb, https://github.com/spring-projects/spring-framework/commit/381f790329a48b74c2a49fc1384dd68ca9153501, https://github.com/spring-projects/spring-framework/commit/f2fd2f12269c6a781c5b2c20b3c24141055a3d68, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20240524-0002, https://spring.io/security/cve-2024-22259</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-22243, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/blob/main/spring-web/src/main/java/org/springframework/web/util/UriComponentsBuilder.java, https://security.netapp.com/advisory/ntap-20240524-0001, https://spring.io/security/cve-2024-22243, http://seclists.org/fulldisclosure/2024/Sep/24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>org.springframework:spring-webmvc</t>
+          <t>org.springframework:spring-web</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2914,42 +2914,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GHSA-36p3-wjmg-h94x</t>
+          <t>GHSA-hgjh-9rj2-g67j</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Remote Code Execution in Spring Framework</t>
+          <t>Spring Framework URL Parsing with Host Validation Vulnerability</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0.0.RELEASE, 1.0.1.RELEASE, 1.0.2.RELEASE, 1.1.0.RELEASE, 1.1.1.RELEASE, 1.1.10.RELEASE, 1.1.11.RELEASE, 1.1.12.RELEASE, 1.1.2.RELEASE, 1.1.3.RELEASE, 1.1.4.RELEASE, 1.1.5.RELEASE, 1.1.6.RELEASE, 1.1.7.RELEASE, 1.1.8.RELEASE, 1.1.9.RELEASE, 1.2.0.RELEASE, 1.2.1.RELEASE, 1.2.2.RELEASE, 1.2.3.RELEASE, 1.2.4.RELEASE, 1.2.5.RELEASE, 1.2.6.RELEASE, 1.2.7.RELEASE, 1.2.8.RELEASE, 1.3.0.RELEASE, 1.3.1.RELEASE, 1.3.2.RELEASE, 1.3.3.RELEASE, 1.3.4.RELEASE, 1.3.5.RELEASE, 1.3.6.RELEASE, 1.3.7.RELEASE, 1.3.8.RELEASE, 1.4.0.RELEASE, 1.4.1.RELEASE, 1.4.2.RELEASE, 1.4.3.RELEASE, 1.4.4.RELEASE, 1.4.5.RELEASE, 1.4.6.RELEASE, 1.4.7.RELEASE, 1.5.0.RELEASE, 1.5.1.RELEASE, 1.5.10.RELEASE, 1.5.11.RELEASE, 1.5.12.RELEASE, 1.5.13.RELEASE, 1.5.14.RELEASE, 1.5.15.RELEASE, 1.5.16.RELEASE, 1.5.17.RELEASE, 1.5.18.RELEASE, 1.5.19.RELEASE, 1.5.2.RELEASE, 1.5.20.RELEASE, 1.5.21.RELEASE, 1.5.22.RELEASE, 1.5.3.RELEASE, 1.5.4.RELEASE, 1.5.5.RELEASE, 1.5.6.RELEASE, 1.5.7.RELEASE, 1.5.8.RELEASE, 1.5.9.RELEASE, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.6.5, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.6.5</t>
+          <t>6.1.0, 6.1.1, 6.1.2, 6.1.3, 6.1.4, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.2, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>5.2.20.RELEASE, 5.3.18, 5.2.20.RELEASE, 5.3.18, 2.5.12, 2.6.6, 5.2.20.RELEASE, 5.3.18, 2.5.12, 2.6.6</t>
+          <t>6.1.5, 6.0.18, 5.3.33</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>CWE-74, CWE-94</t>
+          <t>CWE-601</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>CVE-2022-22965</t>
+          <t>CVE-2024-22259</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22965, https://github.com/spring-projects/spring-framework/commit/002546b3e4b8d791ea6acccb81eb3168f51abb15, https://cert-portal.siemens.com/productcert/pdf/ssa-254054.pdf, https://github.com/spring-projects/spring-boot/releases/tag/v2.5.12, https://github.com/spring-projects/spring-boot/releases/tag/v2.6.6, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/releases/tag/v5.2.20.RELEASE, https://github.com/spring-projects/spring-framework/releases/tag/v5.3.18, https://psirt.global.sonicwall.com/vuln-detail/SNWLID-2022-0005, https://spring.io/blog/2022/03/31/spring-framework-rce-early-announcement, https://tanzu.vmware.com/security/cve-2022-22965, https://tools.cisco.com/security/center/content/CiscoSecurityAdvisory/cisco-sa-java-spring-rce-Zx9GUc67, https://www.kb.cert.org/vuls/id/970766, https://www.oracle.com/security-alerts/cpuapr2022.html, https://www.oracle.com/security-alerts/cpujul2022.html, http://packetstormsecurity.com/files/166713/Spring4Shell-Code-Execution.html, http://packetstormsecurity.com/files/167011/Spring4Shell-Spring-Framework-Class-Property-Remote-Code-Execution.html</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-22259, https://github.com/spring-projects/spring-framework/commit/297cbae2990e1413537c55845a7e0ea0ffd9f9bb, https://github.com/spring-projects/spring-framework/commit/381f790329a48b74c2a49fc1384dd68ca9153501, https://github.com/spring-projects/spring-framework/commit/f2fd2f12269c6a781c5b2c20b3c24141055a3d68, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20240524-0002, https://spring.io/security/cve-2024-22259</t>
         </is>
       </c>
     </row>
@@ -2971,42 +2971,42 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GHSA-cx7f-g6mp-7hqm</t>
+          <t>GHSA-36p3-wjmg-h94x</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Path traversal vulnerability in functional web frameworks</t>
+          <t>Remote Code Execution in Spring Framework</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
+          <t>1.0, 1.0-m4, 1.0-rc1, 1.0.1, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 1.0.0.RELEASE, 1.0.1.RELEASE, 1.0.2.RELEASE, 1.1.0.RELEASE, 1.1.1.RELEASE, 1.1.10.RELEASE, 1.1.11.RELEASE, 1.1.12.RELEASE, 1.1.2.RELEASE, 1.1.3.RELEASE, 1.1.4.RELEASE, 1.1.5.RELEASE, 1.1.6.RELEASE, 1.1.7.RELEASE, 1.1.8.RELEASE, 1.1.9.RELEASE, 1.2.0.RELEASE, 1.2.1.RELEASE, 1.2.2.RELEASE, 1.2.3.RELEASE, 1.2.4.RELEASE, 1.2.5.RELEASE, 1.2.6.RELEASE, 1.2.7.RELEASE, 1.2.8.RELEASE, 1.3.0.RELEASE, 1.3.1.RELEASE, 1.3.2.RELEASE, 1.3.3.RELEASE, 1.3.4.RELEASE, 1.3.5.RELEASE, 1.3.6.RELEASE, 1.3.7.RELEASE, 1.3.8.RELEASE, 1.4.0.RELEASE, 1.4.1.RELEASE, 1.4.2.RELEASE, 1.4.3.RELEASE, 1.4.4.RELEASE, 1.4.5.RELEASE, 1.4.6.RELEASE, 1.4.7.RELEASE, 1.5.0.RELEASE, 1.5.1.RELEASE, 1.5.10.RELEASE, 1.5.11.RELEASE, 1.5.12.RELEASE, 1.5.13.RELEASE, 1.5.14.RELEASE, 1.5.15.RELEASE, 1.5.16.RELEASE, 1.5.17.RELEASE, 1.5.18.RELEASE, 1.5.19.RELEASE, 1.5.2.RELEASE, 1.5.20.RELEASE, 1.5.21.RELEASE, 1.5.22.RELEASE, 1.5.3.RELEASE, 1.5.4.RELEASE, 1.5.5.RELEASE, 1.5.6.RELEASE, 1.5.7.RELEASE, 1.5.8.RELEASE, 1.5.9.RELEASE, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.6.5, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.2, 5.3.3, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 2.0.0.RELEASE, 2.0.1.RELEASE, 2.0.2.RELEASE, 2.0.3.RELEASE, 2.0.4.RELEASE, 2.0.5.RELEASE, 2.0.6.RELEASE, 2.0.7.RELEASE, 2.0.8.RELEASE, 2.0.9.RELEASE, 2.1.0.RELEASE, 2.1.1.RELEASE, 2.1.10.RELEASE, 2.1.11.RELEASE, 2.1.12.RELEASE, 2.1.13.RELEASE, 2.1.14.RELEASE, 2.1.15.RELEASE, 2.1.16.RELEASE, 2.1.17.RELEASE, 2.1.18.RELEASE, 2.1.2.RELEASE, 2.1.3.RELEASE, 2.1.4.RELEASE, 2.1.5.RELEASE, 2.1.6.RELEASE, 2.1.7.RELEASE, 2.1.8.RELEASE, 2.1.9.RELEASE, 2.2.0.RELEASE, 2.2.1.RELEASE, 2.2.10.RELEASE, 2.2.11.RELEASE, 2.2.12.RELEASE, 2.2.13.RELEASE, 2.2.2.RELEASE, 2.2.3.RELEASE, 2.2.4.RELEASE, 2.2.5.RELEASE, 2.2.6.RELEASE, 2.2.7.RELEASE, 2.2.8.RELEASE, 2.2.9.RELEASE, 2.3.0.RELEASE, 2.3.1.RELEASE, 2.3.10.RELEASE, 2.3.11.RELEASE, 2.3.12.RELEASE, 2.3.2.RELEASE, 2.3.3.RELEASE, 2.3.4.RELEASE, 2.3.5.RELEASE, 2.3.6.RELEASE, 2.3.7.RELEASE, 2.3.8.RELEASE, 2.3.9.RELEASE, 2.4.0, 2.4.1, 2.4.10, 2.4.11, 2.4.12, 2.4.13, 2.4.2, 2.4.3, 2.4.4, 2.4.5, 2.4.6, 2.4.7, 2.4.8, 2.4.9, 2.5.0, 2.5.1, 2.5.10, 2.5.11, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.7, 2.5.8, 2.5.9, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.6.5</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6.1.13, 6.1.13</t>
+          <t>5.2.20.RELEASE, 5.3.18, 5.2.20.RELEASE, 5.3.18, 2.5.12, 2.6.6, 5.2.20.RELEASE, 5.3.18, 2.5.12, 2.6.6</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>CWE-22</t>
+          <t>CWE-74, CWE-94</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>CVE-2024-38816</t>
+          <t>CVE-2022-22965</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38816, https://github.com/spring-projects/spring-framework/commit/d86bf8b2056429edf5494456cffcb2b243331c49, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20241227-0001, https://spring.io/security/cve-2024-38816</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-22965, https://github.com/spring-projects/spring-framework/commit/002546b3e4b8d791ea6acccb81eb3168f51abb15, https://cert-portal.siemens.com/productcert/pdf/ssa-254054.pdf, https://github.com/spring-projects/spring-boot/releases/tag/v2.5.12, https://github.com/spring-projects/spring-boot/releases/tag/v2.6.6, https://github.com/spring-projects/spring-framework, https://github.com/spring-projects/spring-framework/releases/tag/v5.2.20.RELEASE, https://github.com/spring-projects/spring-framework/releases/tag/v5.3.18, https://psirt.global.sonicwall.com/vuln-detail/SNWLID-2022-0005, https://spring.io/blog/2022/03/31/spring-framework-rce-early-announcement, https://tanzu.vmware.com/security/cve-2022-22965, https://tools.cisco.com/security/center/content/CiscoSecurityAdvisory/cisco-sa-java-spring-rce-Zx9GUc67, https://www.kb.cert.org/vuls/id/970766, https://www.oracle.com/security-alerts/cpuapr2022.html, https://www.oracle.com/security-alerts/cpujul2022.html, http://packetstormsecurity.com/files/166713/Spring4Shell-Code-Execution.html, http://packetstormsecurity.com/files/167011/Spring4Shell-Spring-Framework-Class-Property-Remote-Code-Execution.html</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GHSA-g5vr-rgqm-vf78</t>
+          <t>GHSA-cx7f-g6mp-7hqm</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3038,17 +3038,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spring Framework Path Traversal vulnerability</t>
+          <t>Path traversal vulnerability in functional web frameworks</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.13, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.13, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9</t>
+          <t>6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>6.1.14, 6.1.14</t>
+          <t>6.1.13, 6.1.13</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3058,12 +3058,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CVE-2024-38819</t>
+          <t>CVE-2024-38816</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38819, https://github.com/spring-projects/spring-framework/issues/33689, https://github.com/spring-projects/spring-framework/commit/3bfbe30a7814c9ea1556d40df9bd87ddb3ba372d, https://github.com/spring-projects/spring-framework/commit/fb7890d73975a3d9e0763e0926df2bd0a608e87e, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20250110-0010, https://spring.io/security/cve-2024-38819</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38816, https://github.com/spring-projects/spring-framework/commit/d86bf8b2056429edf5494456cffcb2b243331c49, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20241227-0001, https://spring.io/security/cve-2024-38816</t>
         </is>
       </c>
     </row>
@@ -3085,50 +3085,54 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>GHSA-w3c8-7r8f-9jp8</t>
+          <t>GHSA-g5vr-rgqm-vf78</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spring MVC controller vulnerable to a DoS attack</t>
+          <t>Spring Framework Path Traversal vulnerability</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
+          <t>5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.13, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9, 1.0, 1.0-rc1, 1.0.1, 1.1, 1.1-rc1, 1.1-rc2, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 1.1.5, 1.2, 1.2-rc1, 1.2-rc2, 1.2.1, 1.2.2, 1.2.3, 1.2.4, 1.2.5, 1.2.6, 1.2.7, 1.2.8, 1.2.9, 2.0, 2.0-m1, 2.0-m2, 2.0-m3, 2.0-m4, 2.0-m5, 2.0-rc1, 2.0-rc2, 2.0.1, 2.0.2, 2.0.3, 2.0.4, 2.0.5, 2.0.6, 2.0.7, 2.0.8, 2.5, 2.5.1, 2.5.2, 2.5.3, 2.5.4, 2.5.5, 2.5.6, 2.5.6.SEC01, 2.5.6.SEC02, 2.5.6.SEC03, 3.0.0.RELEASE, 3.0.1.RELEASE, 3.0.2.RELEASE, 3.0.3.RELEASE, 3.0.4.RELEASE, 3.0.5.RELEASE, 3.0.6.RELEASE, 3.0.7.RELEASE, 3.1.0.RELEASE, 3.1.1.RELEASE, 3.1.2.RELEASE, 3.1.3.RELEASE, 3.1.4.RELEASE, 3.2.0.RELEASE, 3.2.1.RELEASE, 3.2.10.RELEASE, 3.2.11.RELEASE, 3.2.12.RELEASE, 3.2.13.RELEASE, 3.2.14.RELEASE, 3.2.15.RELEASE, 3.2.16.RELEASE, 3.2.17.RELEASE, 3.2.18.RELEASE, 3.2.2.RELEASE, 3.2.3.RELEASE, 3.2.4.RELEASE, 3.2.5.RELEASE, 3.2.6.RELEASE, 3.2.7.RELEASE, 3.2.8.RELEASE, 3.2.9.RELEASE, 4.0.0.RELEASE, 4.0.1.RELEASE, 4.0.2.RELEASE, 4.0.3.RELEASE, 4.0.4.RELEASE, 4.0.5.RELEASE, 4.0.6.RELEASE, 4.0.7.RELEASE, 4.0.8.RELEASE, 4.0.9.RELEASE, 4.1.0.RELEASE, 4.1.1.RELEASE, 4.1.2.RELEASE, 4.1.3.RELEASE, 4.1.4.RELEASE, 4.1.5.RELEASE, 4.1.6.RELEASE, 4.1.7.RELEASE, 4.1.8.RELEASE, 4.1.9.RELEASE, 4.2.0.RELEASE, 4.2.1.RELEASE, 4.2.2.RELEASE, 4.2.3.RELEASE, 4.2.4.RELEASE, 4.2.5.RELEASE, 4.2.6.RELEASE, 4.2.7.RELEASE, 4.2.8.RELEASE, 4.2.9.RELEASE, 4.3.0.RELEASE, 4.3.1.RELEASE, 4.3.10.RELEASE, 4.3.11.RELEASE, 4.3.12.RELEASE, 4.3.13.RELEASE, 4.3.14.RELEASE, 4.3.15.RELEASE, 4.3.16.RELEASE, 4.3.17.RELEASE, 4.3.18.RELEASE, 4.3.19.RELEASE, 4.3.2.RELEASE, 4.3.20.RELEASE, 4.3.21.RELEASE, 4.3.22.RELEASE, 4.3.23.RELEASE, 4.3.24.RELEASE, 4.3.25.RELEASE, 4.3.26.RELEASE, 4.3.27.RELEASE, 4.3.28.RELEASE, 4.3.29.RELEASE, 4.3.3.RELEASE, 4.3.30.RELEASE, 4.3.4.RELEASE, 4.3.5.RELEASE, 4.3.6.RELEASE, 4.3.7.RELEASE, 4.3.8.RELEASE, 4.3.9.RELEASE, 5.0.0.RELEASE, 5.0.1.RELEASE, 5.0.10.RELEASE, 5.0.11.RELEASE, 5.0.12.RELEASE, 5.0.13.RELEASE, 5.0.14.RELEASE, 5.0.15.RELEASE, 5.0.16.RELEASE, 5.0.17.RELEASE, 5.0.18.RELEASE, 5.0.19.RELEASE, 5.0.2.RELEASE, 5.0.20.RELEASE, 5.0.3.RELEASE, 5.0.4.RELEASE, 5.0.5.RELEASE, 5.0.6.RELEASE, 5.0.7.RELEASE, 5.0.8.RELEASE, 5.0.9.RELEASE, 5.1.0.RELEASE, 5.1.1.RELEASE, 5.1.10.RELEASE, 5.1.11.RELEASE, 5.1.12.RELEASE, 5.1.13.RELEASE, 5.1.14.RELEASE, 5.1.15.RELEASE, 5.1.16.RELEASE, 5.1.17.RELEASE, 5.1.18.RELEASE, 5.1.19.RELEASE, 5.1.2.RELEASE, 5.1.20.RELEASE, 5.1.3.RELEASE, 5.1.4.RELEASE, 5.1.5.RELEASE, 5.1.6.RELEASE, 5.1.7.RELEASE, 5.1.8.RELEASE, 5.1.9.RELEASE, 5.2.0.RELEASE, 5.2.1.RELEASE, 5.2.10.RELEASE, 5.2.11.RELEASE, 5.2.12.RELEASE, 5.2.13.RELEASE, 5.2.14.RELEASE, 5.2.15.RELEASE, 5.2.16.RELEASE, 5.2.17.RELEASE, 5.2.18.RELEASE, 5.2.19.RELEASE, 5.2.2.RELEASE, 5.2.20.RELEASE, 5.2.21.RELEASE, 5.2.22.RELEASE, 5.2.23.RELEASE, 5.2.24.RELEASE, 5.2.25.RELEASE, 5.2.3.RELEASE, 5.2.4.RELEASE, 5.2.5.RELEASE, 5.2.6.RELEASE, 5.2.7.RELEASE, 5.2.8.RELEASE, 5.2.9.RELEASE, 5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9, 6.0.0, 6.0.1, 6.0.10, 6.0.11, 6.0.12, 6.0.13, 6.0.14, 6.0.15, 6.0.16, 6.0.17, 6.0.18, 6.0.19, 6.0.2, 6.0.20, 6.0.21, 6.0.22, 6.0.23, 6.0.3, 6.0.4, 6.0.5, 6.0.6, 6.0.7, 6.0.8, 6.0.9, 6.1.0, 6.1.1, 6.1.10, 6.1.11, 6.1.12, 6.1.13, 6.1.2, 6.1.3, 6.1.4, 6.1.5, 6.1.6, 6.1.7, 6.1.8, 6.1.9</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>5.3.42</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>6.1.14, 6.1.14</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CWE-22</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CVE-2024-38828</t>
+          <t>CVE-2024-38819</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38828, https://github.com/spring-projects/spring-framework, https://spring.io/security/cve-2024-38828</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38819, https://github.com/spring-projects/spring-framework/issues/33689, https://github.com/spring-projects/spring-framework/commit/3bfbe30a7814c9ea1556d40df9bd87ddb3ba372d, https://github.com/spring-projects/spring-framework/commit/fb7890d73975a3d9e0763e0926df2bd0a608e87e, https://github.com/spring-projects/spring-framework, https://security.netapp.com/advisory/ntap-20250110-0010, https://spring.io/security/cve-2024-38819</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>org.xmlunit:xmlunit-core</t>
+          <t>org.springframework:spring-webmvc</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.8.4</t>
+          <t>5.3.15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3138,50 +3142,54 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GHSA-chfm-68vv-pvw5</t>
+          <t>GHSA-w3c8-7r8f-9jp8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>XMLUnit for Java has Insecure Defaults when Processing XSLT Stylesheets</t>
+          <t>Spring MVC controller vulnerable to a DoS attack</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.0.0, 2.0.0-alpha-02, 2.0.0-alpha-03, 2.0.0-alpha-04, 2.1.0, 2.1.1, 2.2.0, 2.2.1, 2.3.0, 2.4.0, 2.5.0, 2.5.1, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.7.0, 2.8.0, 2.8.1, 2.8.2, 2.8.3, 2.8.4, 2.9.0, 2.9.1</t>
+          <t>5.3.0, 5.3.1, 5.3.10, 5.3.11, 5.3.12, 5.3.13, 5.3.14, 5.3.15, 5.3.16, 5.3.17, 5.3.18, 5.3.19, 5.3.2, 5.3.20, 5.3.21, 5.3.22, 5.3.23, 5.3.24, 5.3.25, 5.3.26, 5.3.27, 5.3.28, 5.3.29, 5.3.3, 5.3.30, 5.3.31, 5.3.32, 5.3.33, 5.3.34, 5.3.35, 5.3.36, 5.3.37, 5.3.38, 5.3.39, 5.3.4, 5.3.5, 5.3.6, 5.3.7, 5.3.8, 5.3.9</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2.10.0</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>5.3.42</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>CWE-400</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CVE-2024-31573</t>
+          <t>CVE-2024-38828</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>https://github.com/xmlunit/xmlunit/security/advisories/GHSA-chfm-68vv-pvw5, https://github.com/xmlunit/xmlunit/issues/264, https://github.com/xmlunit/xmlunit/commit/b81d48b71dfd2868bdfc30a3e17ff973f32bc15b, https://docs.oracle.com/en/java/javase/22/security/java-api-xml-processing-jaxp-security-guide.html#GUID-E345AA09-801E-4B95-B83D-7F0C452538AA, https://github.com/xmlunit/xmlunit</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2024-38828, https://github.com/spring-projects/spring-framework, https://spring.io/security/cve-2024-38828</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>org.yaml:snakeyaml</t>
+          <t>org.xmlunit:xmlunit-core</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.8.4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3191,42 +3199,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>GHSA-3mc7-4q67-w48m</t>
+          <t>GHSA-chfm-68vv-pvw5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Uncontrolled Resource Consumption in snakeyaml</t>
+          <t>XMLUnit for Java has Insecure Defaults when Processing XSLT Stylesheets</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
+          <t>2.0.0, 2.0.0-alpha-02, 2.0.0-alpha-03, 2.0.0-alpha-04, 2.1.0, 2.1.1, 2.2.0, 2.2.1, 2.3.0, 2.4.0, 2.5.0, 2.5.1, 2.6.0, 2.6.1, 2.6.2, 2.6.3, 2.6.4, 2.7.0, 2.8.0, 2.8.1, 2.8.2, 2.8.3, 2.8.4, 2.9.0, 2.9.1</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>CWE-400, CWE-776</t>
-        </is>
-      </c>
+          <t>2.10.0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>CVE-2022-25857</t>
+          <t>CVE-2024-31573</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-25857, https://github.com/snakeyaml/snakeyaml/commit/fc300780da21f4bb92c148bc90257201220cf174, https://bitbucket.org/snakeyaml/snakeyaml/commits/fc300780da21f4bb92c148bc90257201220cf174, https://bitbucket.org/snakeyaml/snakeyaml/issues/525, https://github.com/snakeyaml/snakeyaml, https://lists.debian.org/debian-lts-announce/2022/10/msg00001.html, https://security.netapp.com/advisory/ntap-20240315-0010, https://security.snyk.io/vuln/SNYK-JAVA-ORGYAML-2806360</t>
+          <t>https://github.com/xmlunit/xmlunit/security/advisories/GHSA-chfm-68vv-pvw5, https://github.com/xmlunit/xmlunit/issues/264, https://github.com/xmlunit/xmlunit/commit/b81d48b71dfd2868bdfc30a3e17ff973f32bc15b, https://docs.oracle.com/en/java/javase/22/security/java-api-xml-processing-jaxp-security-guide.html#GUID-E345AA09-801E-4B95-B83D-7F0C452538AA, https://github.com/xmlunit/xmlunit</t>
         </is>
       </c>
     </row>
@@ -3248,17 +3252,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GHSA-98wm-3w3q-mw94</t>
+          <t>GHSA-3mc7-4q67-w48m</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>snakeYAML before 1.31 vulnerable to Denial of Service due to Out-of-bounds Write</t>
+          <t>Uncontrolled Resource Consumption in snakeyaml</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3273,17 +3277,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>CWE-121, CWE-787</t>
+          <t>CWE-400, CWE-776</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>CVE-2022-38751</t>
+          <t>CVE-2022-25857</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-38751, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/issues/530/stackoverflow-oss-fuzz-47039, https://bitbucket.org/snakeyaml/snakeyaml/src/master/src/test/java/org/yaml/snakeyaml/issues/issue530/Fuzzy47039Test.java, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=47039, https://lists.debian.org/debian-lts-announce/2022/10/msg00001.html, https://security.gentoo.org/glsa/202305-28, https://security.netapp.com/advisory/ntap-20240315-0010</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-25857, https://github.com/snakeyaml/snakeyaml/commit/fc300780da21f4bb92c148bc90257201220cf174, https://bitbucket.org/snakeyaml/snakeyaml/commits/fc300780da21f4bb92c148bc90257201220cf174, https://bitbucket.org/snakeyaml/snakeyaml/issues/525, https://github.com/snakeyaml/snakeyaml, https://lists.debian.org/debian-lts-announce/2022/10/msg00001.html, https://security.netapp.com/advisory/ntap-20240315-0010, https://security.snyk.io/vuln/SNYK-JAVA-ORGYAML-2806360</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3309,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GHSA-9w3m-gqgf-c4p9</t>
+          <t>GHSA-98wm-3w3q-mw94</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3315,17 +3319,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>snakeYAML before 1.32 vulnerable to Denial of Service due to Out-of-bounds Write</t>
+          <t>snakeYAML before 1.31 vulnerable to Denial of Service due to Out-of-bounds Write</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.31, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
+          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3335,12 +3339,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>CVE-2022-38752</t>
+          <t>CVE-2022-38751</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-38752, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/issues/531/stackoverflow-oss-fuzz-47081, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=47081, https://security.gentoo.org/glsa/202305-28, https://security.netapp.com/advisory/ntap-20240315-0009</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-38751, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/issues/530/stackoverflow-oss-fuzz-47039, https://bitbucket.org/snakeyaml/snakeyaml/src/master/src/test/java/org/yaml/snakeyaml/issues/issue530/Fuzzy47039Test.java, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=47039, https://lists.debian.org/debian-lts-announce/2022/10/msg00001.html, https://security.gentoo.org/glsa/202305-28, https://security.netapp.com/advisory/ntap-20240315-0010</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3366,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>GHSA-c4r9-r8fh-9vj2</t>
+          <t>GHSA-9w3m-gqgf-c4p9</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3372,17 +3376,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>snakeYAML before 1.31 vulnerable to Denial of Service due to Out-of-bounds Write</t>
+          <t>snakeYAML before 1.32 vulnerable to Denial of Service due to Out-of-bounds Write</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9, 1.25.1, 1.0.0, 0.17.0, 0.17.0, 0.17.1, 0.17.2, 0.18.0, 0.9.5, 0.9.6, 0.9.7, 0.9.8, 0.9.9, 1.0.0, 1.0.2, 1.0.3, 1.0.4, 1.0.5, 1.0.6, 1.18-android, 1.18.1, 1.18.2</t>
+          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.31, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3392,12 +3396,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>CVE-2022-38749</t>
+          <t>CVE-2022-38752</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-38749, https://arxiv.org/pdf/2306.05534.pdf, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/issues/525/got-stackoverflowerror-for-many-open, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=47024, https://lists.debian.org/debian-lts-announce/2022/10/msg00001.html, https://security.gentoo.org/glsa/202305-28, https://security.netapp.com/advisory/ntap-20240315-0010</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-38752, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/issues/531/stackoverflow-oss-fuzz-47081, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=47081, https://security.gentoo.org/glsa/202305-28, https://security.netapp.com/advisory/ntap-20240315-0009</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3423,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GHSA-hhhw-99gj-p3c3</t>
+          <t>GHSA-c4r9-r8fh-9vj2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3434,7 +3438,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
+          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9, 1.25.1, 1.0.0, 0.17.0, 0.17.0, 0.17.1, 0.17.2, 0.18.0, 0.9.5, 0.9.6, 0.9.7, 0.9.8, 0.9.9, 1.0.0, 1.0.2, 1.0.3, 1.0.4, 1.0.5, 1.0.6, 1.18-android, 1.18.1, 1.18.2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3449,12 +3453,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>CVE-2022-38750</t>
+          <t>CVE-2022-38749</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-38750, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/issues/526/stackoverflow-oss-fuzz-47027, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=47027, https://lists.debian.org/debian-lts-announce/2022/10/msg00001.html, https://security.gentoo.org/glsa/202305-28, https://security.netapp.com/advisory/ntap-20240315-0010</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-38749, https://arxiv.org/pdf/2306.05534.pdf, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/issues/525/got-stackoverflowerror-for-many-open, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=47024, https://lists.debian.org/debian-lts-announce/2022/10/msg00001.html, https://security.gentoo.org/glsa/202305-28, https://security.netapp.com/advisory/ntap-20240315-0010</t>
         </is>
       </c>
     </row>
@@ -3476,42 +3480,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>GHSA-mjmj-j48q-9wg2</t>
+          <t>GHSA-hhhw-99gj-p3c3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SnakeYaml Constructor Deserialization Remote Code Execution</t>
+          <t>snakeYAML before 1.31 vulnerable to Denial of Service due to Out-of-bounds Write</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.31, 1.32, 1.33, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
+          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>CWE-20, CWE-502</t>
+          <t>CWE-121, CWE-787</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>CVE-2022-1471</t>
+          <t>CVE-2022-38750</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>https://github.com/google/security-research/security/advisories/GHSA-mjmj-j48q-9wg2, https://nvd.nist.gov/vuln/detail/CVE-2022-1471, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/commits/5014df1a36f50aca54405bb8433bc99a8847f758, https://bitbucket.org/snakeyaml/snakeyaml/commits/acc44099f5f4af26ff86b4e4e4cc1c874e2dc5c4, https://bitbucket.org/snakeyaml/snakeyaml/issues/561/cve-2022-1471-vulnerability-in#comment-64581479, https://bitbucket.org/snakeyaml/snakeyaml/issues/561/cve-2022-1471-vulnerability-in#comment-64634374, https://bitbucket.org/snakeyaml/snakeyaml/issues/561/cve-2022-1471-vulnerability-in#comment-64876314, https://bitbucket.org/snakeyaml/snakeyaml/wiki/CVE-2022-1471, https://github.com/mbechler/marshalsec, https://groups.google.com/g/kubernetes-security-announce/c/mwrakFaEdnc, https://security.netapp.com/advisory/ntap-20230818-0015, https://security.netapp.com/advisory/ntap-20240621-0006, https://snyk.io/blog/unsafe-deserialization-snakeyaml-java-cve-2022-1471, https://www.github.com/mbechler/marshalsec/blob/master/marshalsec.pdf?raw=true, http://packetstormsecurity.com/files/175095/PyTorch-Model-Server-Registration-Deserialization-Remote-Code-Execution.html, http://www.openwall.com/lists/oss-security/2023/11/19/1</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-38750, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/issues/526/stackoverflow-oss-fuzz-47027, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=47027, https://lists.debian.org/debian-lts-announce/2022/10/msg00001.html, https://security.gentoo.org/glsa/202305-28, https://security.netapp.com/advisory/ntap-20240315-0010</t>
         </is>
       </c>
     </row>
@@ -3533,99 +3537,99 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GHSA-w37g-rhq8-7m4j</t>
+          <t>GHSA-mjmj-j48q-9wg2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MODERATE</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Snakeyaml vulnerable to Stack overflow leading to denial of service</t>
+          <t>SnakeYaml Constructor Deserialization Remote Code Execution</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.31, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
+          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.31, 1.32, 1.33, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>CWE-121, CWE-787</t>
+          <t>CWE-20, CWE-502</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>CVE-2022-41854</t>
+          <t>CVE-2022-1471</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-41854, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/commits/e230a1758842beec93d28eddfde568c21774780a, https://bitbucket.org/snakeyaml/snakeyaml/issues/531, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=50355, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/3DDXEXXWAZGF5AVHIPGFPXIWL6TSMKJE, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/7MKE4XWRXTH32757H7QJU4ACS67DYDCR, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/KSPAJ5Y45A4ZDION2KN5RDWLHK4XKY2J, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/3DDXEXXWAZGF5AVHIPGFPXIWL6TSMKJE, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/7MKE4XWRXTH32757H7QJU4ACS67DYDCR, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/KSPAJ5Y45A4ZDION2KN5RDWLHK4XKY2J, https://security.netapp.com/advisory/ntap-20240315-0009, https://security.netapp.com/advisory/ntap-20240621-0006</t>
+          <t>https://github.com/google/security-research/security/advisories/GHSA-mjmj-j48q-9wg2, https://nvd.nist.gov/vuln/detail/CVE-2022-1471, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/commits/5014df1a36f50aca54405bb8433bc99a8847f758, https://bitbucket.org/snakeyaml/snakeyaml/commits/acc44099f5f4af26ff86b4e4e4cc1c874e2dc5c4, https://bitbucket.org/snakeyaml/snakeyaml/issues/561/cve-2022-1471-vulnerability-in#comment-64581479, https://bitbucket.org/snakeyaml/snakeyaml/issues/561/cve-2022-1471-vulnerability-in#comment-64634374, https://bitbucket.org/snakeyaml/snakeyaml/issues/561/cve-2022-1471-vulnerability-in#comment-64876314, https://bitbucket.org/snakeyaml/snakeyaml/wiki/CVE-2022-1471, https://github.com/mbechler/marshalsec, https://groups.google.com/g/kubernetes-security-announce/c/mwrakFaEdnc, https://security.netapp.com/advisory/ntap-20230818-0015, https://security.netapp.com/advisory/ntap-20240621-0006, https://snyk.io/blog/unsafe-deserialization-snakeyaml-java-cve-2022-1471, https://www.github.com/mbechler/marshalsec/blob/master/marshalsec.pdf?raw=true, http://packetstormsecurity.com/files/175095/PyTorch-Model-Server-Registration-Deserialization-Remote-Code-Execution.html, http://www.openwall.com/lists/oss-security/2023/11/19/1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>flask</t>
+          <t>org.yaml:snakeyaml</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0.12.1</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PyPI</t>
+          <t>Maven</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GHSA-562c-5r94-xh97</t>
+          <t>GHSA-w37g-rhq8-7m4j</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Flask is vulnerable to Denial of Service via incorrect encoding of JSON data</t>
+          <t>Snakeyaml vulnerable to Stack overflow leading to denial of service</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9</t>
+          <t>1.10, 1.11, 1.12, 1.13, 1.14, 1.15, 1.16, 1.17, 1.18, 1.19, 1.20, 1.21, 1.22, 1.23, 1.24, 1.25, 1.26, 1.27, 1.28, 1.29, 1.30, 1.31, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.12.3</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>CWE-20</t>
+          <t>CWE-121, CWE-787</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>CVE-2018-1000656, PYSEC-2018-66</t>
+          <t>CVE-2022-41854</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2018-1000656, https://github.com/pallets/flask/pull/2691, https://github.com/pallets/flask/commit/b178e89e4456e777b1a7ac6d7199052d0dfdbbbe, https://github.com/advisories/GHSA-562c-5r94-xh97, https://github.com/pallets/flask, https://github.com/pallets/flask/releases/tag/0.12.3, https://github.com/pypa/advisory-database/tree/main/vulns/flask/PYSEC-2018-66.yaml, https://lists.debian.org/debian-lts-announce/2019/08/msg00025.html, https://security.netapp.com/advisory/ntap-20190221-0001, https://usn.ubuntu.com/4378-1</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2022-41854, https://bitbucket.org/snakeyaml/snakeyaml, https://bitbucket.org/snakeyaml/snakeyaml/commits/e230a1758842beec93d28eddfde568c21774780a, https://bitbucket.org/snakeyaml/snakeyaml/issues/531, https://bugs.chromium.org/p/oss-fuzz/issues/detail?id=50355, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/3DDXEXXWAZGF5AVHIPGFPXIWL6TSMKJE, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/7MKE4XWRXTH32757H7QJU4ACS67DYDCR, https://lists.fedoraproject.org/archives/list/package-announce%40lists.fedoraproject.org/message/KSPAJ5Y45A4ZDION2KN5RDWLHK4XKY2J, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/3DDXEXXWAZGF5AVHIPGFPXIWL6TSMKJE, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/7MKE4XWRXTH32757H7QJU4ACS67DYDCR, https://lists.fedoraproject.org/archives/list/package-announce@lists.fedoraproject.org/message/KSPAJ5Y45A4ZDION2KN5RDWLHK4XKY2J, https://security.netapp.com/advisory/ntap-20240315-0009, https://security.netapp.com/advisory/ntap-20240621-0006</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3651,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>GHSA-5wv5-4vpf-pj6m</t>
+          <t>GHSA-562c-5r94-xh97</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3657,32 +3661,32 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pallets Project Flask is vulnerable to Denial of Service via Unexpected memory usage</t>
+          <t>Flask is vulnerable to Denial of Service via incorrect encoding of JSON data</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.12.3, 0.12.4, 0.12.5, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9</t>
+          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.12.3</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>CWE-400</t>
+          <t>CWE-20</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>CVE-2019-1010083, PYSEC-2019-179</t>
+          <t>CVE-2018-1000656, PYSEC-2018-66</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>https://nvd.nist.gov/vuln/detail/CVE-2019-1010083, https://github.com/advisories/GHSA-5wv5-4vpf-pj6m, https://github.com/pallets/flask, https://github.com/pypa/advisory-database/tree/main/vulns/flask/PYSEC-2019-179.yaml, https://www.palletsprojects.com/blog/flask-1-0-released</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2018-1000656, https://github.com/pallets/flask/pull/2691, https://github.com/pallets/flask/commit/b178e89e4456e777b1a7ac6d7199052d0dfdbbbe, https://github.com/advisories/GHSA-562c-5r94-xh97, https://github.com/pallets/flask, https://github.com/pallets/flask/releases/tag/0.12.3, https://github.com/pypa/advisory-database/tree/main/vulns/flask/PYSEC-2018-66.yaml, https://lists.debian.org/debian-lts-announce/2019/08/msg00025.html, https://security.netapp.com/advisory/ntap-20190221-0001, https://usn.ubuntu.com/4378-1</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3708,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GHSA-m2qf-hxjv-5gpq</t>
+          <t>GHSA-5wv5-4vpf-pj6m</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3714,32 +3718,32 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Flask vulnerable to possible disclosure of permanent session cookie due to missing Vary: Cookie header</t>
+          <t>Pallets Project Flask is vulnerable to Denial of Service via Unexpected memory usage</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.3.0, 2.3.1, 0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.12.3, 0.12.4, 0.12.5, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9, 1.0, 1.0.1, 1.0.2, 1.0.3, 1.0.4, 1.1.0, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 2.0.0, 2.0.0rc1, 2.0.0rc2, 2.0.1, 2.0.2, 2.0.3, 2.1.0, 2.1.1, 2.1.2, 2.1.3, 2.2.0, 2.2.1, 2.2.2, 2.2.3, 2.2.4</t>
+          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.12.3, 0.12.4, 0.12.5, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2.3.2, 2.2.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>CWE-539</t>
+          <t>CWE-400</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>CVE-2023-30861, PYSEC-2023-62</t>
+          <t>CVE-2019-1010083, PYSEC-2019-179</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>https://github.com/pallets/flask/security/advisories/GHSA-m2qf-hxjv-5gpq, https://nvd.nist.gov/vuln/detail/CVE-2023-30861, https://github.com/pallets/flask/commit/70f906c51ce49c485f1d355703e9cc3386b1cc2b, https://github.com/pallets/flask/commit/afd63b16170b7c047f5758eb910c416511e9c965, https://github.com/pallets/flask, https://github.com/pallets/flask/releases/tag/2.2.5, https://github.com/pallets/flask/releases/tag/2.3.2, https://github.com/pypa/advisory-database/tree/main/vulns/flask/PYSEC-2023-62.yaml, https://lists.debian.org/debian-lts-announce/2023/08/msg00024.html, https://security.netapp.com/advisory/ntap-20230818-0006, https://www.debian.org/security/2023/dsa-5442</t>
+          <t>https://nvd.nist.gov/vuln/detail/CVE-2019-1010083, https://github.com/advisories/GHSA-5wv5-4vpf-pj6m, https://github.com/pallets/flask, https://github.com/pypa/advisory-database/tree/main/vulns/flask/PYSEC-2019-179.yaml, https://www.palletsprojects.com/blog/flask-1-0-released</t>
         </is>
       </c>
     </row>
@@ -3761,34 +3765,42 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PYSEC-2018-66</t>
+          <t>GHSA-m2qf-hxjv-5gpq</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Flask vulnerable to possible disclosure of permanent session cookie due to missing Vary: Cookie header</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9</t>
+          <t>2.3.0, 2.3.1, 0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.12.3, 0.12.4, 0.12.5, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9, 1.0, 1.0.1, 1.0.2, 1.0.3, 1.0.4, 1.1.0, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 2.0.0, 2.0.0rc1, 2.0.0rc2, 2.0.1, 2.0.2, 2.0.3, 2.1.0, 2.1.1, 2.1.2, 2.1.3, 2.2.0, 2.2.1, 2.2.2, 2.2.3, 2.2.4</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.12.3</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>2.3.2, 2.2.5</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>CWE-539</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>CVE-2018-1000656, GHSA-562c-5r94-xh97</t>
+          <t>CVE-2023-30861, PYSEC-2023-62</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>https://github.com/pallets/flask/releases/tag/0.12.3, https://github.com/pallets/flask/pull/2691, https://security.netapp.com/advisory/ntap-20190221-0001/, https://lists.debian.org/debian-lts-announce/2019/08/msg00025.html, https://usn.ubuntu.com/4378-1/, https://github.com/advisories/GHSA-562c-5r94-xh97</t>
+          <t>https://github.com/pallets/flask/security/advisories/GHSA-m2qf-hxjv-5gpq, https://nvd.nist.gov/vuln/detail/CVE-2023-30861, https://github.com/pallets/flask/commit/70f906c51ce49c485f1d355703e9cc3386b1cc2b, https://github.com/pallets/flask/commit/afd63b16170b7c047f5758eb910c416511e9c965, https://github.com/pallets/flask, https://github.com/pallets/flask/releases/tag/2.2.5, https://github.com/pallets/flask/releases/tag/2.3.2, https://github.com/pypa/advisory-database/tree/main/vulns/flask/PYSEC-2023-62.yaml, https://lists.debian.org/debian-lts-announce/2023/08/msg00024.html, https://security.netapp.com/advisory/ntap-20230818-0006, https://www.debian.org/security/2023/dsa-5442</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3822,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PYSEC-2019-179</t>
+          <t>PYSEC-2018-66</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3821,23 +3833,23 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.12.3, 0.12.4, 0.12.5, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9</t>
+          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.12.3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>CVE-2019-1010083, GHSA-5wv5-4vpf-pj6m</t>
+          <t>CVE-2018-1000656, GHSA-562c-5r94-xh97</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>https://www.palletsprojects.com/blog/flask-1-0-released/, https://github.com/advisories/GHSA-5wv5-4vpf-pj6m</t>
+          <t>https://github.com/pallets/flask/releases/tag/0.12.3, https://github.com/pallets/flask/pull/2691, https://security.netapp.com/advisory/ntap-20190221-0001/, https://lists.debian.org/debian-lts-announce/2019/08/msg00025.html, https://usn.ubuntu.com/4378-1/, https://github.com/advisories/GHSA-562c-5r94-xh97</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3871,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PYSEC-2023-62</t>
+          <t>PYSEC-2019-179</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3870,21 +3882,70 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.12.3, 0.12.4, 0.12.5, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9, 1.0, 1.0.1, 1.0.2, 1.0.3, 1.0.4, 1.1.0, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 2.0.0, 2.0.0rc1, 2.0.0rc2, 2.0.1, 2.0.2, 2.0.3, 2.1.0, 2.1.1, 2.1.2, 2.1.3, 2.2.0, 2.2.1, 2.2.2, 2.2.3, 2.2.4, 2.3.0, 2.3.1</t>
+          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.12.3, 0.12.4, 0.12.5, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>70f906c51ce49c485f1d355703e9cc3386b1cc2b, afd63b16170b7c047f5758eb910c416511e9c965</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
+          <t>CVE-2019-1010083, GHSA-5wv5-4vpf-pj6m</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>https://www.palletsprojects.com/blog/flask-1-0-released/, https://github.com/advisories/GHSA-5wv5-4vpf-pj6m</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>flask</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.12.1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PyPI</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PYSEC-2023-62</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1, 0.10, 0.10.1, 0.11, 0.11.1, 0.12, 0.12.1, 0.12.2, 0.12.3, 0.12.4, 0.12.5, 0.2, 0.3, 0.3.1, 0.4, 0.5, 0.5.1, 0.5.2, 0.6, 0.6.1, 0.7, 0.7.1, 0.7.2, 0.8, 0.8.1, 0.9, 1.0, 1.0.1, 1.0.2, 1.0.3, 1.0.4, 1.1.0, 1.1.1, 1.1.2, 1.1.3, 1.1.4, 2.0.0, 2.0.0rc1, 2.0.0rc2, 2.0.1, 2.0.2, 2.0.3, 2.1.0, 2.1.1, 2.1.2, 2.1.3, 2.2.0, 2.2.1, 2.2.2, 2.2.3, 2.2.4, 2.3.0, 2.3.1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>70f906c51ce49c485f1d355703e9cc3386b1cc2b, afd63b16170b7c047f5758eb910c416511e9c965</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>CVE-2023-30861, GHSA-m2qf-hxjv-5gpq</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>https://github.com/pallets/flask/commit/70f906c51ce49c485f1d355703e9cc3386b1cc2b, https://github.com/pallets/flask/releases/tag/2.3.2, https://github.com/pallets/flask/releases/tag/2.2.5, https://github.com/pallets/flask/security/advisories/GHSA-m2qf-hxjv-5gpq, https://github.com/pallets/flask/commit/afd63b16170b7c047f5758eb910c416511e9c965</t>
         </is>
@@ -7933,7 +7994,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
